--- a/source-code/scratch/owin/mmrds-importer/mapping-file-set/system-of-record-mapping-no-grid.xlsx
+++ b/source-code/scratch/owin/mmrds-importer/mapping-file-set/system-of-record-mapping-no-grid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8352"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6080" uniqueCount="2495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6081" uniqueCount="2496">
   <si>
     <t>Path</t>
   </si>
@@ -6631,9 +6631,6 @@
     <t>birth_fetal_death_certificate_parent/cigarette_smoking/none_or_not_specified</t>
   </si>
   <si>
-    <t>Need to add field for not specified- none and not specified are not the same</t>
-  </si>
-  <si>
     <t>birth_fetal_death_certificate_parent/reviewer_note</t>
   </si>
   <si>
@@ -7529,6 +7526,12 @@
   </si>
   <si>
     <t>death_certificate/address_of_death/county</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/risk_factors/number_of_c_sections</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/location_of_residence/estimated_distance_from_residence</t>
   </si>
 </sst>
 </file>
@@ -8079,8 +8082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B199" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B525" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H526" sqref="H526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10370,7 +10373,7 @@
         <v>7</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -10442,7 +10445,7 @@
         <v>28</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10468,7 +10471,7 @@
         <v>28</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10517,7 +10520,7 @@
         <v>56</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10543,7 +10546,7 @@
         <v>11</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10569,7 +10572,7 @@
         <v>7</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10595,7 +10598,7 @@
         <v>56</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10621,7 +10624,7 @@
         <v>28</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10648,7 +10651,7 @@
       </c>
       <c r="H99" s="17"/>
       <c r="J99" s="14" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10674,7 +10677,7 @@
         <v>28</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10700,7 +10703,7 @@
         <v>28</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -10726,7 +10729,7 @@
         <v>28</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10752,7 +10755,7 @@
         <v>56</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -10778,7 +10781,7 @@
         <v>56</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -11116,7 +11119,7 @@
         <v>11</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -11492,7 +11495,7 @@
         <v>56</v>
       </c>
       <c r="H132" s="22" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -11700,7 +11703,7 @@
         <v>56</v>
       </c>
       <c r="H140" s="22" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -11752,7 +11755,7 @@
         <v>56</v>
       </c>
       <c r="H142" s="22" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -11960,7 +11963,7 @@
         <v>11</v>
       </c>
       <c r="H150" s="22" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="J150" s="6"/>
     </row>
@@ -12192,7 +12195,7 @@
         <v>56</v>
       </c>
       <c r="H159" s="22" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -12351,7 +12354,7 @@
         <v>56</v>
       </c>
       <c r="H165" s="22" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -12579,7 +12582,7 @@
         <v>56</v>
       </c>
       <c r="H174" s="22" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -12787,7 +12790,7 @@
         <v>56</v>
       </c>
       <c r="H182" s="22" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -13019,7 +13022,7 @@
         <v>11</v>
       </c>
       <c r="H191" s="22" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="J191" s="6"/>
     </row>
@@ -13046,7 +13049,7 @@
         <v>7</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -13072,7 +13075,7 @@
         <v>7</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -13098,7 +13101,7 @@
         <v>7</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -13124,7 +13127,7 @@
         <v>328</v>
       </c>
       <c r="H195" s="6" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13244,7 +13247,7 @@
         <v>328</v>
       </c>
       <c r="H200" s="6" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13270,7 +13273,7 @@
         <v>56</v>
       </c>
       <c r="H201" s="6" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -13296,7 +13299,7 @@
         <v>11</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -13322,7 +13325,7 @@
         <v>11</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13394,7 +13397,7 @@
         <v>11</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13420,7 +13423,7 @@
         <v>11</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -13446,7 +13449,7 @@
         <v>28</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13472,7 +13475,7 @@
         <v>7</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13498,7 +13501,7 @@
         <v>11</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -13524,7 +13527,7 @@
         <v>11</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13688,7 +13691,7 @@
         <v>11</v>
       </c>
       <c r="H218" s="6" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13783,7 +13786,7 @@
         <v>56</v>
       </c>
       <c r="H222" s="6" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13809,7 +13812,7 @@
         <v>56</v>
       </c>
       <c r="H223" s="6" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13835,7 +13838,7 @@
         <v>56</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13861,7 +13864,7 @@
         <v>11</v>
       </c>
       <c r="H225" s="6" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13887,7 +13890,7 @@
         <v>11</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13913,7 +13916,7 @@
         <v>11</v>
       </c>
       <c r="H227" s="8" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -13939,7 +13942,7 @@
         <v>11</v>
       </c>
       <c r="H228" s="8" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -14011,7 +14014,7 @@
         <v>56</v>
       </c>
       <c r="H231" s="8" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -14037,7 +14040,7 @@
         <v>11</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -14063,7 +14066,7 @@
         <v>11</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -14089,7 +14092,7 @@
         <v>11</v>
       </c>
       <c r="H234" s="6" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -14115,7 +14118,7 @@
         <v>11</v>
       </c>
       <c r="H235" s="6" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -14164,7 +14167,7 @@
         <v>11</v>
       </c>
       <c r="H237" s="6" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -14213,7 +14216,7 @@
         <v>56</v>
       </c>
       <c r="H239" s="8" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -14239,7 +14242,7 @@
         <v>56</v>
       </c>
       <c r="H240" s="8" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14265,7 +14268,7 @@
         <v>56</v>
       </c>
       <c r="H241" s="8" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -14291,7 +14294,7 @@
         <v>7</v>
       </c>
       <c r="H242" s="9" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14343,7 +14346,7 @@
         <v>7</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14369,7 +14372,7 @@
         <v>7</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14395,7 +14398,7 @@
         <v>56</v>
       </c>
       <c r="J246" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -14421,7 +14424,7 @@
         <v>56</v>
       </c>
       <c r="H247" s="8" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14447,7 +14450,7 @@
         <v>7</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14615,7 +14618,7 @@
         <v>7</v>
       </c>
       <c r="H255" s="6" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -14641,7 +14644,7 @@
         <v>7</v>
       </c>
       <c r="H256" s="6" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14667,7 +14670,7 @@
         <v>56</v>
       </c>
       <c r="H257" s="8" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14693,7 +14696,7 @@
         <v>56</v>
       </c>
       <c r="H258" s="8" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14719,7 +14722,7 @@
         <v>11</v>
       </c>
       <c r="H259" s="8" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14745,7 +14748,7 @@
         <v>11</v>
       </c>
       <c r="H260" s="8" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14771,7 +14774,7 @@
         <v>7</v>
       </c>
       <c r="H261" s="9" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14797,7 +14800,7 @@
         <v>56</v>
       </c>
       <c r="H262" s="8" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14823,7 +14826,7 @@
         <v>56</v>
       </c>
       <c r="H263" s="8" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14849,7 +14852,7 @@
         <v>56</v>
       </c>
       <c r="J264" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14898,7 +14901,7 @@
         <v>28</v>
       </c>
       <c r="H266" s="6" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14924,7 +14927,7 @@
         <v>28</v>
       </c>
       <c r="H267" s="6" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14973,7 +14976,7 @@
         <v>328</v>
       </c>
       <c r="H269" s="6" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -14999,7 +15002,7 @@
         <v>263</v>
       </c>
       <c r="H270" s="6" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -15025,7 +15028,7 @@
         <v>263</v>
       </c>
       <c r="H271" s="6" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="272" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15074,7 +15077,7 @@
         <v>263</v>
       </c>
       <c r="H273" s="6" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15100,7 +15103,7 @@
         <v>56</v>
       </c>
       <c r="H274" s="6" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -15126,7 +15129,7 @@
         <v>7</v>
       </c>
       <c r="H275" s="6" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15152,7 +15155,7 @@
         <v>7</v>
       </c>
       <c r="H276" s="6" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -15178,7 +15181,7 @@
         <v>11</v>
       </c>
       <c r="H277" s="6" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15204,7 +15207,7 @@
         <v>7</v>
       </c>
       <c r="H278" s="6" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15230,7 +15233,7 @@
         <v>263</v>
       </c>
       <c r="H279" s="8" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15256,7 +15259,7 @@
         <v>7</v>
       </c>
       <c r="H280" s="6" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15305,7 +15308,7 @@
         <v>11</v>
       </c>
       <c r="H282" s="6" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="283" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -15331,7 +15334,7 @@
         <v>11</v>
       </c>
       <c r="H283" s="6" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15357,7 +15360,7 @@
         <v>11</v>
       </c>
       <c r="H284" s="6" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15383,7 +15386,7 @@
         <v>11</v>
       </c>
       <c r="H285" s="6" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -15409,7 +15412,7 @@
         <v>11</v>
       </c>
       <c r="H286" s="6" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15435,7 +15438,7 @@
         <v>7</v>
       </c>
       <c r="H287" s="6" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15462,10 +15465,10 @@
       </c>
       <c r="H288" s="17"/>
       <c r="I288" s="6" t="s">
+        <v>2287</v>
+      </c>
+      <c r="J288" s="14" t="s">
         <v>2288</v>
-      </c>
-      <c r="J288" s="14" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -15537,7 +15540,7 @@
         <v>7</v>
       </c>
       <c r="H291" s="6" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15563,7 +15566,7 @@
         <v>28</v>
       </c>
       <c r="H292" s="6" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15589,7 +15592,7 @@
         <v>28</v>
       </c>
       <c r="H293" s="6" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="294" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15615,7 +15618,7 @@
         <v>28</v>
       </c>
       <c r="H294" s="6" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -15641,7 +15644,7 @@
         <v>56</v>
       </c>
       <c r="H295" s="6" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15667,7 +15670,7 @@
         <v>7</v>
       </c>
       <c r="H296" s="6" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15694,10 +15697,10 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="6" t="s">
+        <v>2287</v>
+      </c>
+      <c r="J297" s="14" t="s">
         <v>2288</v>
-      </c>
-      <c r="J297" s="14" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -15723,7 +15726,7 @@
         <v>56</v>
       </c>
       <c r="H298" s="6" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -15749,7 +15752,7 @@
         <v>56</v>
       </c>
       <c r="H299" s="6" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -15775,7 +15778,7 @@
         <v>56</v>
       </c>
       <c r="H300" s="6" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15801,7 +15804,7 @@
         <v>7</v>
       </c>
       <c r="H301" s="6" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -15827,7 +15830,7 @@
         <v>56</v>
       </c>
       <c r="J302" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15853,7 +15856,7 @@
         <v>7</v>
       </c>
       <c r="H303" s="6" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="304" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -15880,10 +15883,10 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="6" t="s">
+        <v>2287</v>
+      </c>
+      <c r="J304" s="14" t="s">
         <v>2288</v>
-      </c>
-      <c r="J304" s="14" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -16340,7 +16343,7 @@
         <v>11</v>
       </c>
       <c r="H322" s="8" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="323" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -16366,7 +16369,7 @@
         <v>11</v>
       </c>
       <c r="H323" s="6" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="324" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -16393,7 +16396,7 @@
       </c>
       <c r="H324" s="17"/>
       <c r="J324" s="21" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="325" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -16420,7 +16423,7 @@
       </c>
       <c r="H325" s="17"/>
       <c r="I325" s="6" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -16447,7 +16450,7 @@
       </c>
       <c r="H326" s="17"/>
       <c r="I326" s="6" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -16474,7 +16477,7 @@
       </c>
       <c r="H327" s="17"/>
       <c r="I327" s="6" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -16500,7 +16503,7 @@
         <v>11</v>
       </c>
       <c r="H328" s="6" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -16526,7 +16529,7 @@
         <v>11</v>
       </c>
       <c r="H329" s="6" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="330" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -16786,7 +16789,7 @@
         <v>56</v>
       </c>
       <c r="H340" s="8" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -16812,7 +16815,7 @@
         <v>56</v>
       </c>
       <c r="H341" s="8" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -16838,7 +16841,7 @@
         <v>11</v>
       </c>
       <c r="H342" s="6" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -16942,7 +16945,7 @@
         <v>56</v>
       </c>
       <c r="H346" s="6" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -16968,7 +16971,7 @@
         <v>7</v>
       </c>
       <c r="H347" s="6" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="348" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -16994,7 +16997,7 @@
         <v>7</v>
       </c>
       <c r="H348" s="6" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="349" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -17092,7 +17095,7 @@
         <v>7</v>
       </c>
       <c r="H352" s="6" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -17170,7 +17173,7 @@
         <v>56</v>
       </c>
       <c r="H355" s="6" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="356" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -17222,7 +17225,7 @@
         <v>7</v>
       </c>
       <c r="H357" s="6" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="358" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -17300,7 +17303,7 @@
         <v>56</v>
       </c>
       <c r="H360" s="6" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="361" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -17326,7 +17329,7 @@
         <v>56</v>
       </c>
       <c r="H361" s="6" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="362" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -17378,7 +17381,7 @@
         <v>56</v>
       </c>
       <c r="H363" s="6" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="364" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -17609,7 +17612,7 @@
         <v>56</v>
       </c>
       <c r="H372" s="6" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -17895,7 +17898,7 @@
         <v>7</v>
       </c>
       <c r="H383" s="6" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="384" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -17921,7 +17924,7 @@
         <v>11</v>
       </c>
       <c r="H384" s="6" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="385" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -17947,7 +17950,7 @@
         <v>11</v>
       </c>
       <c r="H385" s="6" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -18127,7 +18130,7 @@
         <v>11</v>
       </c>
       <c r="H392" s="6" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="393" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -18153,7 +18156,7 @@
         <v>11</v>
       </c>
       <c r="H393" s="6" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="394" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -18179,7 +18182,7 @@
         <v>11</v>
       </c>
       <c r="H394" s="6" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="395" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -18309,7 +18312,7 @@
         <v>11</v>
       </c>
       <c r="H399" s="8" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -18463,7 +18466,7 @@
         <v>11</v>
       </c>
       <c r="H405" s="6" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="406" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -18541,7 +18544,7 @@
         <v>56</v>
       </c>
       <c r="H408" s="8" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="409" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -18594,10 +18597,10 @@
       </c>
       <c r="H410" s="7"/>
       <c r="I410" s="6" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="J410" s="14" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="411" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -18624,7 +18627,7 @@
       </c>
       <c r="H411" s="17"/>
       <c r="J411" s="21" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="412" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -18651,10 +18654,10 @@
       </c>
       <c r="H412" s="17"/>
       <c r="I412" s="6" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="J412" s="14" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="413" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -18680,7 +18683,7 @@
         <v>11</v>
       </c>
       <c r="H413" s="6" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="I413" s="6"/>
     </row>
@@ -18707,13 +18710,13 @@
         <v>11</v>
       </c>
       <c r="H414" s="6" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="I414" s="6" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="J414" s="14" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="415" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -18811,7 +18814,7 @@
         <v>7</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="419" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -18837,7 +18840,7 @@
         <v>7</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="420" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -18864,10 +18867,10 @@
       </c>
       <c r="H420" s="17"/>
       <c r="I420" s="6" t="s">
+        <v>2263</v>
+      </c>
+      <c r="J420" s="14" t="s">
         <v>2264</v>
-      </c>
-      <c r="J420" s="14" t="s">
-        <v>2265</v>
       </c>
     </row>
     <row r="421" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -18969,7 +18972,7 @@
         <v>7</v>
       </c>
       <c r="H424" s="6" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="425" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -18995,7 +18998,7 @@
         <v>56</v>
       </c>
       <c r="H425" s="6" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="426" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -19074,7 +19077,7 @@
       </c>
       <c r="H428" s="17"/>
       <c r="J428" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="429" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -19100,7 +19103,7 @@
         <v>7</v>
       </c>
       <c r="H429" s="6" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="430" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -19126,7 +19129,7 @@
         <v>11</v>
       </c>
       <c r="H430" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="431" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -19202,7 +19205,7 @@
         <v>56</v>
       </c>
       <c r="H433" s="6" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="434" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -19621,7 +19624,7 @@
         <v>56</v>
       </c>
       <c r="J449" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="450" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -19646,9 +19649,11 @@
       <c r="G450" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H450" s="17"/>
+      <c r="H450" s="22" t="s">
+        <v>2494</v>
+      </c>
       <c r="J450" s="11" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="451" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -19858,9 +19863,7 @@
       <c r="H458" s="6" t="s">
         <v>2194</v>
       </c>
-      <c r="I458" s="10" t="s">
-        <v>2195</v>
-      </c>
+      <c r="I458" s="10"/>
     </row>
     <row r="459" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
@@ -19885,7 +19888,7 @@
         <v>56</v>
       </c>
       <c r="H459" s="6" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="460" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -19911,7 +19914,7 @@
         <v>11</v>
       </c>
       <c r="H460" s="6" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="461" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -19937,7 +19940,7 @@
         <v>7</v>
       </c>
       <c r="H461" s="6" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="462" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -19963,7 +19966,7 @@
         <v>11</v>
       </c>
       <c r="H462" s="6" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="463" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -19989,7 +19992,7 @@
         <v>11</v>
       </c>
       <c r="H463" s="6" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="464" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20093,7 +20096,7 @@
         <v>11</v>
       </c>
       <c r="H467" s="6" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I467" s="11"/>
     </row>
@@ -20120,7 +20123,7 @@
         <v>56</v>
       </c>
       <c r="H468" s="6" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="469" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20146,7 +20149,7 @@
         <v>56</v>
       </c>
       <c r="H469" s="6" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="470" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20224,7 +20227,7 @@
         <v>7</v>
       </c>
       <c r="H472" s="6" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="473" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20276,7 +20279,7 @@
         <v>11</v>
       </c>
       <c r="H474" s="6" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="475" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20302,7 +20305,7 @@
         <v>7</v>
       </c>
       <c r="H475" s="6" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="476" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20328,7 +20331,7 @@
         <v>56</v>
       </c>
       <c r="H476" s="8" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="477" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20354,10 +20357,10 @@
         <v>56</v>
       </c>
       <c r="H477" s="8" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="478" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
         <v>1274</v>
       </c>
@@ -20379,9 +20382,11 @@
       <c r="G478" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H478" s="17"/>
+      <c r="H478" s="22" t="s">
+        <v>2495</v>
+      </c>
       <c r="J478" s="20" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="479" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20407,7 +20412,7 @@
         <v>11</v>
       </c>
       <c r="H479" s="8" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="480" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20433,7 +20438,7 @@
         <v>11</v>
       </c>
       <c r="H480" s="8" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="481" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20459,7 +20464,7 @@
         <v>7</v>
       </c>
       <c r="H481" s="9" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="482" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20485,7 +20490,7 @@
         <v>56</v>
       </c>
       <c r="H482" s="8" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="483" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20511,7 +20516,7 @@
         <v>56</v>
       </c>
       <c r="H483" s="8" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="484" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20694,7 +20699,7 @@
       </c>
       <c r="H490" s="6"/>
       <c r="J490" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="491" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20720,7 +20725,7 @@
         <v>56</v>
       </c>
       <c r="H491" s="8" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="492" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20746,7 +20751,7 @@
         <v>56</v>
       </c>
       <c r="H492" s="8" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="493" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20772,7 +20777,7 @@
         <v>11</v>
       </c>
       <c r="H493" s="8" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="494" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20798,7 +20803,7 @@
         <v>11</v>
       </c>
       <c r="H494" s="8" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="495" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20824,7 +20829,7 @@
         <v>7</v>
       </c>
       <c r="H495" s="9" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="496" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -20850,7 +20855,7 @@
         <v>56</v>
       </c>
       <c r="H496" s="8" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="497" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -20876,7 +20881,7 @@
         <v>56</v>
       </c>
       <c r="H497" s="8" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="498" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -20928,7 +20933,7 @@
         <v>11</v>
       </c>
       <c r="H499" s="6" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="500" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -20954,7 +20959,7 @@
         <v>28</v>
       </c>
       <c r="H500" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="501" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -20980,7 +20985,7 @@
         <v>28</v>
       </c>
       <c r="H501" s="6" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="502" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -21006,7 +21011,7 @@
         <v>11</v>
       </c>
       <c r="H502" s="6" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="503" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -21032,7 +21037,7 @@
         <v>28</v>
       </c>
       <c r="H503" s="6" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="504" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -21058,7 +21063,7 @@
         <v>28</v>
       </c>
       <c r="H504" s="6" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="505" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -21084,7 +21089,7 @@
         <v>11</v>
       </c>
       <c r="H505" s="6" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="506" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -21110,7 +21115,7 @@
         <v>28</v>
       </c>
       <c r="H506" s="6" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="507" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -21136,7 +21141,7 @@
         <v>28</v>
       </c>
       <c r="H507" s="6" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="508" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -21162,7 +21167,7 @@
         <v>11</v>
       </c>
       <c r="H508" s="6" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="509" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -21188,7 +21193,7 @@
         <v>28</v>
       </c>
       <c r="H509" s="6" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="510" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -21214,7 +21219,7 @@
         <v>28</v>
       </c>
       <c r="H510" s="6" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="511" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -21396,7 +21401,7 @@
         <v>7</v>
       </c>
       <c r="H517" s="6" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="518" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -21422,7 +21427,7 @@
         <v>7</v>
       </c>
       <c r="H518" s="6" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="519" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -21474,7 +21479,7 @@
         <v>7</v>
       </c>
       <c r="H520" s="6" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="521" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -21500,7 +21505,7 @@
         <v>11</v>
       </c>
       <c r="H521" s="6" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="522" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -21526,7 +21531,7 @@
         <v>11</v>
       </c>
       <c r="H522" s="6" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="523" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -21604,7 +21609,7 @@
         <v>11</v>
       </c>
       <c r="H525" s="6" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="526" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -21631,10 +21636,10 @@
       </c>
       <c r="H526" s="17"/>
       <c r="I526" s="6" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="J526" s="20" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="527" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -21661,7 +21666,7 @@
       </c>
       <c r="H527" s="17"/>
       <c r="J527" s="21" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="528" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -21688,7 +21693,7 @@
       </c>
       <c r="H528" s="17"/>
       <c r="J528" s="21" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="529" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -21714,7 +21719,7 @@
         <v>11</v>
       </c>
       <c r="H529" s="6" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="I529" s="6"/>
     </row>
@@ -21741,7 +21746,7 @@
         <v>11</v>
       </c>
       <c r="H530" s="6" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="531" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -21767,7 +21772,7 @@
         <v>11</v>
       </c>
       <c r="H531" s="6" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="532" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -21817,7 +21822,7 @@
         <v>56</v>
       </c>
       <c r="H533" s="8" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="534" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -21843,7 +21848,7 @@
         <v>7</v>
       </c>
       <c r="H534" s="9" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="535" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -21869,7 +21874,7 @@
         <v>7</v>
       </c>
       <c r="H535" s="9" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="536" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -21895,7 +21900,7 @@
         <v>7</v>
       </c>
       <c r="H536" s="9" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="537" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -22293,7 +22298,7 @@
         <v>56</v>
       </c>
       <c r="H553" s="6" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="554" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -22319,7 +22324,7 @@
         <v>7</v>
       </c>
       <c r="H554" s="9" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="555" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -22345,7 +22350,7 @@
         <v>56</v>
       </c>
       <c r="H555" s="6" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="556" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -22371,7 +22376,7 @@
         <v>7</v>
       </c>
       <c r="H556" s="9" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="557" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -22397,7 +22402,7 @@
         <v>11</v>
       </c>
       <c r="H557" s="6" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="558" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -22423,7 +22428,7 @@
         <v>56</v>
       </c>
       <c r="H558" s="6" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="559" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -22449,7 +22454,7 @@
         <v>7</v>
       </c>
       <c r="H559" s="9" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="560" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -22475,7 +22480,7 @@
         <v>7</v>
       </c>
       <c r="H560" s="9" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="561" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -22501,7 +22506,7 @@
         <v>7</v>
       </c>
       <c r="H561" s="9" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="562" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -22528,7 +22533,7 @@
       </c>
       <c r="H562" s="17"/>
       <c r="J562" s="14" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="563" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -22770,7 +22775,7 @@
         <v>7</v>
       </c>
       <c r="H572" s="9" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="573" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -22796,7 +22801,7 @@
         <v>7</v>
       </c>
       <c r="H573" s="9" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="574" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -22822,7 +22827,7 @@
         <v>7</v>
       </c>
       <c r="H574" s="9" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="575" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -22871,7 +22876,7 @@
         <v>11</v>
       </c>
       <c r="H576" s="6" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="577" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -22897,7 +22902,7 @@
         <v>56</v>
       </c>
       <c r="J577" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="578" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -22923,7 +22928,7 @@
         <v>56</v>
       </c>
       <c r="H578" s="6" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="579" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -22949,7 +22954,7 @@
         <v>56</v>
       </c>
       <c r="H579" s="8" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="580" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -22975,7 +22980,7 @@
         <v>56</v>
       </c>
       <c r="H580" s="8" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.3">
@@ -23003,7 +23008,7 @@
       <c r="H581" s="17"/>
       <c r="I581" s="8"/>
       <c r="J581" s="14" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="582" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23029,7 +23034,7 @@
         <v>7</v>
       </c>
       <c r="H582" s="8" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="583" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23055,7 +23060,7 @@
         <v>7</v>
       </c>
       <c r="H583" s="9" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.3">
@@ -23104,7 +23109,7 @@
         <v>11</v>
       </c>
       <c r="H585" s="8" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="586" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23130,7 +23135,7 @@
         <v>11</v>
       </c>
       <c r="H586" s="8" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="587" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23179,7 +23184,7 @@
         <v>56</v>
       </c>
       <c r="H588" s="8" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="589" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23229,7 +23234,7 @@
       </c>
       <c r="H590" s="17"/>
       <c r="J590" s="14" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.3">
@@ -23255,7 +23260,7 @@
         <v>56</v>
       </c>
       <c r="J591" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="592" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23281,7 +23286,7 @@
         <v>56</v>
       </c>
       <c r="H592" s="8" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="593" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23379,7 +23384,7 @@
         <v>56</v>
       </c>
       <c r="H596" s="8" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.3">
@@ -23428,7 +23433,7 @@
         <v>7</v>
       </c>
       <c r="H598" s="6" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="599" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -23454,7 +23459,7 @@
         <v>328</v>
       </c>
       <c r="H599" s="6" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="600" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23480,7 +23485,7 @@
         <v>7</v>
       </c>
       <c r="H600" s="6" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="601" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23506,7 +23511,7 @@
         <v>7</v>
       </c>
       <c r="H601" s="6" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.3">
@@ -23532,7 +23537,7 @@
         <v>56</v>
       </c>
       <c r="J602" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.3">
@@ -23604,7 +23609,7 @@
         <v>7</v>
       </c>
       <c r="H605" s="8" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="606" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23630,7 +23635,7 @@
         <v>56</v>
       </c>
       <c r="H606" s="8" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="607" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23725,7 +23730,7 @@
         <v>56</v>
       </c>
       <c r="H610" s="6" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="611" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23797,7 +23802,7 @@
         <v>263</v>
       </c>
       <c r="H613" s="6" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="614" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23823,7 +23828,7 @@
         <v>7</v>
       </c>
       <c r="H614" s="6" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.3">
@@ -23850,7 +23855,7 @@
       </c>
       <c r="H615" s="17"/>
       <c r="J615" s="14" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="616" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23876,7 +23881,7 @@
         <v>328</v>
       </c>
       <c r="H616" s="6" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="617" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23903,7 +23908,7 @@
       </c>
       <c r="H617" s="18"/>
       <c r="J617" s="20" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="618" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23929,7 +23934,7 @@
         <v>328</v>
       </c>
       <c r="H618" s="6" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="619" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23955,7 +23960,7 @@
         <v>328</v>
       </c>
       <c r="H619" s="6" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="620" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -23981,7 +23986,7 @@
         <v>328</v>
       </c>
       <c r="H620" s="6" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="621" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24007,7 +24012,7 @@
         <v>11</v>
       </c>
       <c r="H621" s="6" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="I621" s="6"/>
     </row>
@@ -24034,7 +24039,7 @@
         <v>11</v>
       </c>
       <c r="H622" s="6" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="623" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24060,7 +24065,7 @@
         <v>7</v>
       </c>
       <c r="H623" s="6" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="624" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24086,7 +24091,7 @@
         <v>7</v>
       </c>
       <c r="H624" s="6" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="625" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24112,7 +24117,7 @@
         <v>11</v>
       </c>
       <c r="H625" s="12" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="626" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24231,10 +24236,10 @@
       </c>
       <c r="H630" s="17"/>
       <c r="I630" s="6" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="J630" s="20" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="631" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24284,10 +24289,10 @@
       </c>
       <c r="H632" s="17"/>
       <c r="I632" s="6" t="s">
+        <v>2390</v>
+      </c>
+      <c r="J632" s="14" t="s">
         <v>2391</v>
-      </c>
-      <c r="J632" s="14" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="633" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24314,10 +24319,10 @@
       </c>
       <c r="H633" s="17"/>
       <c r="I633" s="6" t="s">
+        <v>2390</v>
+      </c>
+      <c r="J633" s="14" t="s">
         <v>2391</v>
-      </c>
-      <c r="J633" s="14" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="634" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24343,7 +24348,7 @@
         <v>11</v>
       </c>
       <c r="H634" s="12" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="635" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24369,7 +24374,7 @@
         <v>11</v>
       </c>
       <c r="H635" s="6" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="636" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24395,7 +24400,7 @@
         <v>11</v>
       </c>
       <c r="H636" s="6" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="637" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24421,7 +24426,7 @@
         <v>11</v>
       </c>
       <c r="H637" s="6" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="638" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24447,7 +24452,7 @@
         <v>11</v>
       </c>
       <c r="H638" s="6" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="639" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24473,7 +24478,7 @@
         <v>11</v>
       </c>
       <c r="H639" s="6" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="640" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24499,7 +24504,7 @@
         <v>11</v>
       </c>
       <c r="H640" s="6" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="641" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -24548,7 +24553,7 @@
         <v>7</v>
       </c>
       <c r="H642" s="6" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="643" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -24574,7 +24579,7 @@
         <v>11</v>
       </c>
       <c r="H643" s="12" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="644" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -24600,7 +24605,7 @@
         <v>11</v>
       </c>
       <c r="H644" s="12" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="645" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -24810,7 +24815,7 @@
         <v>11</v>
       </c>
       <c r="H653" s="6" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="654" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -24836,7 +24841,7 @@
         <v>7</v>
       </c>
       <c r="H654" s="6" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="655" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -24862,7 +24867,7 @@
         <v>11</v>
       </c>
       <c r="H655" s="6" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="656" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -24912,7 +24917,7 @@
         <v>11</v>
       </c>
       <c r="H657" s="6" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="658" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24938,7 +24943,7 @@
         <v>11</v>
       </c>
       <c r="H658" s="6" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="659" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24964,7 +24969,7 @@
         <v>11</v>
       </c>
       <c r="H659" s="6" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="660" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -24990,7 +24995,7 @@
         <v>11</v>
       </c>
       <c r="H660" s="8" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="661" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25063,7 +25068,7 @@
         <v>11</v>
       </c>
       <c r="H663" s="8" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="664" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25089,7 +25094,7 @@
         <v>11</v>
       </c>
       <c r="H664" s="6" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="665" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25115,7 +25120,7 @@
         <v>11</v>
       </c>
       <c r="H665" s="6" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="666" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25141,7 +25146,7 @@
         <v>11</v>
       </c>
       <c r="H666" s="6" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="667" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25167,7 +25172,7 @@
         <v>11</v>
       </c>
       <c r="H667" s="6" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="668" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25193,7 +25198,7 @@
         <v>11</v>
       </c>
       <c r="H668" s="6" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="669" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25220,10 +25225,10 @@
       </c>
       <c r="H669" s="17"/>
       <c r="I669" s="6" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="J669" s="14" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="670" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25249,7 +25254,7 @@
         <v>11</v>
       </c>
       <c r="H670" s="6" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="671" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25275,7 +25280,7 @@
         <v>28</v>
       </c>
       <c r="H671" s="9" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="672" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25301,7 +25306,7 @@
         <v>56</v>
       </c>
       <c r="J672" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="673" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25327,7 +25332,7 @@
         <v>56</v>
       </c>
       <c r="H673" s="12" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="674" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25353,7 +25358,7 @@
         <v>11</v>
       </c>
       <c r="H674" s="6" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="675" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25402,7 +25407,7 @@
         <v>11</v>
       </c>
       <c r="H676" s="6" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="677" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25428,7 +25433,7 @@
         <v>7</v>
       </c>
       <c r="H677" s="6" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="678" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25454,7 +25459,7 @@
         <v>7</v>
       </c>
       <c r="H678" s="6" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="679" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25503,7 +25508,7 @@
         <v>56</v>
       </c>
       <c r="H680" s="6" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="681" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25529,7 +25534,7 @@
         <v>11</v>
       </c>
       <c r="H681" s="6" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="682" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25555,7 +25560,7 @@
         <v>7</v>
       </c>
       <c r="H682" s="6" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="683" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25604,7 +25609,7 @@
         <v>56</v>
       </c>
       <c r="J684" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="685" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25630,7 +25635,7 @@
         <v>56</v>
       </c>
       <c r="H685" s="6" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="686" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25679,7 +25684,7 @@
         <v>28</v>
       </c>
       <c r="H687" s="9" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="688" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -25729,7 +25734,7 @@
       </c>
       <c r="H689" s="17"/>
       <c r="J689" s="14" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="690" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25875,7 +25880,7 @@
         <v>11</v>
       </c>
       <c r="H695" s="12" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="696" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25901,7 +25906,7 @@
         <v>7</v>
       </c>
       <c r="H696" s="6" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="697" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25951,7 +25956,7 @@
         <v>7</v>
       </c>
       <c r="H698" s="6" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="699" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -25977,7 +25982,7 @@
         <v>7</v>
       </c>
       <c r="H699" s="6" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="700" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26003,7 +26008,7 @@
         <v>7</v>
       </c>
       <c r="H700" s="12" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="701" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26029,7 +26034,7 @@
         <v>7</v>
       </c>
       <c r="H701" s="6" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="702" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26055,7 +26060,7 @@
         <v>11</v>
       </c>
       <c r="H702" s="12" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="703" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26081,7 +26086,7 @@
         <v>11</v>
       </c>
       <c r="H703" s="12" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="704" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26107,7 +26112,7 @@
         <v>11</v>
       </c>
       <c r="H704" s="12" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="705" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26133,7 +26138,7 @@
         <v>328</v>
       </c>
       <c r="H705" s="12" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="706" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26253,7 +26258,7 @@
         <v>11</v>
       </c>
       <c r="H710" s="6" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="711" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26279,7 +26284,7 @@
         <v>11</v>
       </c>
       <c r="H711" s="6" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="712" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26305,7 +26310,7 @@
         <v>11</v>
       </c>
       <c r="H712" s="6" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="713" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26331,7 +26336,7 @@
         <v>11</v>
       </c>
       <c r="H713" s="6" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="714" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26358,10 +26363,10 @@
       </c>
       <c r="H714" s="17"/>
       <c r="I714" s="6" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="J714" s="14" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="715" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26387,7 +26392,7 @@
         <v>11</v>
       </c>
       <c r="H715" s="6" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="716" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26437,7 +26442,7 @@
         <v>28</v>
       </c>
       <c r="H717" s="6" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="718" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26463,7 +26468,7 @@
         <v>56</v>
       </c>
       <c r="H718" s="6" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="719" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26489,7 +26494,7 @@
         <v>28</v>
       </c>
       <c r="H719" s="6" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="720" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26515,7 +26520,7 @@
         <v>28</v>
       </c>
       <c r="H720" s="6" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="721" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26541,7 +26546,7 @@
         <v>28</v>
       </c>
       <c r="H721" s="6" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="722" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26567,7 +26572,7 @@
         <v>28</v>
       </c>
       <c r="H722" s="6" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="723" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26593,7 +26598,7 @@
         <v>28</v>
       </c>
       <c r="H723" s="6" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="724" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26619,7 +26624,7 @@
         <v>28</v>
       </c>
       <c r="H724" s="6" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="725" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26645,7 +26650,7 @@
         <v>28</v>
       </c>
       <c r="H725" s="6" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="726" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26671,7 +26676,7 @@
         <v>56</v>
       </c>
       <c r="H726" s="6" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="727" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26697,7 +26702,7 @@
         <v>28</v>
       </c>
       <c r="H727" s="6" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="728" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26723,7 +26728,7 @@
         <v>28</v>
       </c>
       <c r="H728" s="6" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="729" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26749,7 +26754,7 @@
         <v>28</v>
       </c>
       <c r="H729" s="6" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="730" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26775,7 +26780,7 @@
         <v>28</v>
       </c>
       <c r="H730" s="6" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="731" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26801,7 +26806,7 @@
         <v>28</v>
       </c>
       <c r="H731" s="6" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="732" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26827,7 +26832,7 @@
         <v>28</v>
       </c>
       <c r="H732" s="6" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="733" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26853,7 +26858,7 @@
         <v>28</v>
       </c>
       <c r="H733" s="6" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="734" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26879,7 +26884,7 @@
         <v>28</v>
       </c>
       <c r="H734" s="6" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="735" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26905,7 +26910,7 @@
         <v>7</v>
       </c>
       <c r="H735" s="6" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="736" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -26931,7 +26936,7 @@
         <v>7</v>
       </c>
       <c r="H736" s="6" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="737" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26957,7 +26962,7 @@
         <v>7</v>
       </c>
       <c r="H737" s="6" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="738" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -26983,7 +26988,7 @@
         <v>7</v>
       </c>
       <c r="H738" s="6" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="739" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27009,7 +27014,7 @@
         <v>7</v>
       </c>
       <c r="H739" s="6" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="740" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27035,7 +27040,7 @@
         <v>7</v>
       </c>
       <c r="H740" s="6" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="741" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27061,7 +27066,7 @@
         <v>7</v>
       </c>
       <c r="H741" s="6" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="742" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27087,7 +27092,7 @@
         <v>28</v>
       </c>
       <c r="H742" s="6" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="743" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27113,7 +27118,7 @@
         <v>28</v>
       </c>
       <c r="H743" s="6" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="744" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27139,7 +27144,7 @@
         <v>28</v>
       </c>
       <c r="H744" s="6" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="745" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27165,7 +27170,7 @@
         <v>28</v>
       </c>
       <c r="H745" s="6" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="746" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27191,7 +27196,7 @@
         <v>28</v>
       </c>
       <c r="H746" s="6" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="747" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27217,7 +27222,7 @@
         <v>28</v>
       </c>
       <c r="H747" s="6" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="748" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27243,7 +27248,7 @@
         <v>28</v>
       </c>
       <c r="H748" s="6" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="749" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27293,7 +27298,7 @@
         <v>28</v>
       </c>
       <c r="H750" s="6" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="751" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -27319,7 +27324,7 @@
         <v>11</v>
       </c>
       <c r="J751" s="14" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="752" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -27345,7 +27350,7 @@
         <v>56</v>
       </c>
       <c r="J752" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="753" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -27371,7 +27376,7 @@
         <v>56</v>
       </c>
       <c r="H753" s="6" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="754" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27397,7 +27402,7 @@
         <v>56</v>
       </c>
       <c r="H754" s="6" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="755" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -27423,7 +27428,7 @@
         <v>28</v>
       </c>
       <c r="H755" s="6" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="756" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27449,7 +27454,7 @@
         <v>56</v>
       </c>
       <c r="H756" s="6" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="757" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -27475,7 +27480,7 @@
         <v>28</v>
       </c>
       <c r="H757" s="6" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="758" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27501,7 +27506,7 @@
         <v>56</v>
       </c>
       <c r="J758" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="759" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27527,7 +27532,7 @@
         <v>7</v>
       </c>
       <c r="H759" s="6" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="760" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27553,7 +27558,7 @@
         <v>56</v>
       </c>
       <c r="H760" s="6" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="761" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27579,7 +27584,7 @@
         <v>7</v>
       </c>
       <c r="H761" s="6" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="762" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27605,7 +27610,7 @@
         <v>7</v>
       </c>
       <c r="H762" s="6" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="763" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27655,7 +27660,7 @@
         <v>28</v>
       </c>
       <c r="H764" s="6" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="765" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27681,7 +27686,7 @@
         <v>56</v>
       </c>
       <c r="H765" s="6" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="766" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -27707,7 +27712,7 @@
         <v>28</v>
       </c>
       <c r="H766" s="6" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="767" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -27733,7 +27738,7 @@
         <v>28</v>
       </c>
       <c r="H767" s="6" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="768" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -27759,7 +27764,7 @@
         <v>28</v>
       </c>
       <c r="H768" s="6" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="769" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -27785,7 +27790,7 @@
         <v>28</v>
       </c>
       <c r="H769" s="6" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="770" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -27811,7 +27816,7 @@
         <v>28</v>
       </c>
       <c r="H770" s="6" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="771" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -27837,7 +27842,7 @@
         <v>28</v>
       </c>
       <c r="H771" s="6" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="772" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -27863,7 +27868,7 @@
         <v>28</v>
       </c>
       <c r="H772" s="6" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="773" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -27889,7 +27894,7 @@
         <v>28</v>
       </c>
       <c r="H773" s="6" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="774" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27915,10 +27920,10 @@
         <v>11</v>
       </c>
       <c r="H774" s="6" t="s">
+        <v>2380</v>
+      </c>
+      <c r="J774" s="20" t="s">
         <v>2381</v>
-      </c>
-      <c r="J774" s="20" t="s">
-        <v>2382</v>
       </c>
     </row>
     <row r="775" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -27968,7 +27973,7 @@
         <v>7</v>
       </c>
       <c r="H776" s="6" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
   </sheetData>

--- a/source-code/scratch/owin/mmrds-importer/mapping-file-set/system-of-record-mapping-no-grid.xlsx
+++ b/source-code/scratch/owin/mmrds-importer/mapping-file-set/system-of-record-mapping-no-grid.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="7992"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6081" uniqueCount="2496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6113" uniqueCount="2530">
   <si>
     <t>Path</t>
   </si>
@@ -7532,12 +7532,114 @@
   </si>
   <si>
     <t>birth_fetal_death_certificate_parent/location_of_residence/estimated_distance_from_residence</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/prenatal_care/date_of_1st_prenatal_visit/year</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/prenatal_care/date_of_1st_prenatal_visit/day</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/prenatal_care/date_of_1st_prenatal_visit/month</t>
+  </si>
+  <si>
+    <t>death_certificate/certificate_identification/time_of_death</t>
+  </si>
+  <si>
+    <t>er_visit_and_hospital_medical_records/were_there_complications_of_anesthesia</t>
+  </si>
+  <si>
+    <t>er_visit_and_hospital_medical_records/basic_admission_and_discharge_information/admission_status_other</t>
+  </si>
+  <si>
+    <t>er_visit_and_hospital_medical_records/basic_admission_and_discharge_information/admission_reason_other</t>
+  </si>
+  <si>
+    <t>er_visit_and_hospital_medical_records/name_and_location_facility/mode_of_transportation_to_facility_other</t>
+  </si>
+  <si>
+    <t>er_visit_and_hospital_medical_records/name_and_location_facility/origin_of_travel_other</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/prenatal_care/principal_source_of_payment_for_this_delivery</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/record_identification/maiden_name</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/pregnancy_history/date_of_last_other_outcome/month</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/pregnancy_history/date_of_last_other_outcome/day</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/pregnancy_history/date_of_last_other_outcome/year</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/pregnancy_history/date_of_last_live_birth/day</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/pregnancy_history/date_of_last_live_birth/month</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/pregnancy_history/date_of_last_live_birth/year</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/demographic_of_mother/date_of_birth/is_estimated</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/prenatal_care/date_of_last_normal_menses/month</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/prenatal_care/date_of_last_normal_menses/day</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/prenatal_care/date_of_last_normal_menses/year</t>
+  </si>
+  <si>
+    <t>prenatal/were_there_pre_delivery_hospitalizations</t>
+  </si>
+  <si>
+    <t>prenatal/location_of_primary_prenatal_care_facility/city</t>
+  </si>
+  <si>
+    <t>prenatal/location_of_primary_prenatal_care_facility/county</t>
+  </si>
+  <si>
+    <t>prenatal/location_of_primary_prenatal_care_facility/state</t>
+  </si>
+  <si>
+    <t>prenatal/location_of_primary_prenatal_care_facility/street</t>
+  </si>
+  <si>
+    <t>prenatal/location_of_primary_prenatal_care_facility/zip_code</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/record_identification/middle_name</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/record_identification/last_name</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/record_identification/first_name</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/maternal_biometrics/bmi</t>
+  </si>
+  <si>
+    <t>other_medical_office_visits/medical_care_facility/other_payment_source</t>
+  </si>
+  <si>
+    <t>prenatal/current_pregnancy/date_of_last_prenatal_visit/gestational_age_at_last_prenatal_visit</t>
+  </si>
+  <si>
+    <t>we chose not to map this in MMRIA.  The unit is now captured in a string field</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7704,7 +7806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7757,9 +7859,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7774,6 +7873,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7869,6 +7977,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7904,6 +8029,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8080,25 +8222,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B525" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H526" sqref="H526"/>
+    <sheetView tabSelected="1" topLeftCell="A714" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I776" sqref="I776"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="42.33203125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="39.6640625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="38.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="42.28515625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="38.7109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8130,7 +8273,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -8159,7 +8302,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -8185,7 +8328,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -8211,7 +8354,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -8238,7 +8381,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -8265,7 +8408,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -8292,7 +8435,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -8318,7 +8461,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -8344,7 +8487,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -8370,7 +8513,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -8393,7 +8536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -8419,7 +8562,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -8445,7 +8588,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -8471,7 +8614,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
@@ -8497,7 +8640,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
@@ -8524,7 +8667,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -8547,7 +8690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
@@ -8573,7 +8716,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
@@ -8599,7 +8742,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -8625,7 +8768,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -8651,7 +8794,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
@@ -8674,7 +8817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -8700,7 +8843,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -8726,7 +8869,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>89</v>
       </c>
@@ -8753,7 +8896,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -8779,7 +8922,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
@@ -8805,7 +8948,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
@@ -8831,7 +8974,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
@@ -8857,7 +9000,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>105</v>
       </c>
@@ -8883,7 +9026,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>108</v>
       </c>
@@ -8909,7 +9052,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>111</v>
       </c>
@@ -8935,7 +9078,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>114</v>
       </c>
@@ -8958,7 +9101,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>116</v>
       </c>
@@ -8984,7 +9127,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>119</v>
       </c>
@@ -9010,7 +9153,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>122</v>
       </c>
@@ -9036,7 +9179,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>125</v>
       </c>
@@ -9062,7 +9205,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>128</v>
       </c>
@@ -9088,7 +9231,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>131</v>
       </c>
@@ -9114,7 +9257,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>134</v>
       </c>
@@ -9140,7 +9283,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
@@ -9166,7 +9309,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>140</v>
       </c>
@@ -9192,7 +9335,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>143</v>
       </c>
@@ -9218,7 +9361,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>146</v>
       </c>
@@ -9244,7 +9387,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>149</v>
       </c>
@@ -9270,7 +9413,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>152</v>
       </c>
@@ -9296,7 +9439,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>155</v>
       </c>
@@ -9322,7 +9465,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>158</v>
       </c>
@@ -9348,7 +9491,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>161</v>
       </c>
@@ -9371,7 +9514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>164</v>
       </c>
@@ -9397,7 +9540,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>167</v>
       </c>
@@ -9423,7 +9566,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>170</v>
       </c>
@@ -9449,7 +9592,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>173</v>
       </c>
@@ -9475,7 +9618,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>176</v>
       </c>
@@ -9501,7 +9644,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>179</v>
       </c>
@@ -9527,7 +9670,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>181</v>
       </c>
@@ -9553,7 +9696,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>183</v>
       </c>
@@ -9579,7 +9722,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>186</v>
       </c>
@@ -9605,7 +9748,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>189</v>
       </c>
@@ -9631,7 +9774,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>192</v>
       </c>
@@ -9657,7 +9800,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>195</v>
       </c>
@@ -9683,7 +9826,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>198</v>
       </c>
@@ -9709,7 +9852,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>201</v>
       </c>
@@ -9735,7 +9878,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>204</v>
       </c>
@@ -9761,7 +9904,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>207</v>
       </c>
@@ -9787,7 +9930,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>210</v>
       </c>
@@ -9813,7 +9956,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>213</v>
       </c>
@@ -9836,7 +9979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>216</v>
       </c>
@@ -9859,7 +10002,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>219</v>
       </c>
@@ -9885,7 +10028,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>222</v>
       </c>
@@ -9911,7 +10054,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>225</v>
       </c>
@@ -9937,7 +10080,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>227</v>
       </c>
@@ -9963,7 +10106,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>230</v>
       </c>
@@ -9989,7 +10132,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>233</v>
       </c>
@@ -10012,7 +10155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>236</v>
       </c>
@@ -10038,7 +10181,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>239</v>
       </c>
@@ -10064,7 +10207,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>242</v>
       </c>
@@ -10090,7 +10233,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>245</v>
       </c>
@@ -10116,7 +10259,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>248</v>
       </c>
@@ -10142,7 +10285,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>251</v>
       </c>
@@ -10168,7 +10311,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>254</v>
       </c>
@@ -10194,7 +10337,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>257</v>
       </c>
@@ -10220,7 +10363,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>260</v>
       </c>
@@ -10246,7 +10389,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>264</v>
       </c>
@@ -10272,7 +10415,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>267</v>
       </c>
@@ -10298,7 +10441,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>270</v>
       </c>
@@ -10324,7 +10467,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>273</v>
       </c>
@@ -10350,7 +10493,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>276</v>
       </c>
@@ -10376,7 +10519,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>280</v>
       </c>
@@ -10399,7 +10542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>283</v>
       </c>
@@ -10422,7 +10565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>286</v>
       </c>
@@ -10448,7 +10591,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>289</v>
       </c>
@@ -10474,7 +10617,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>292</v>
       </c>
@@ -10497,7 +10640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>295</v>
       </c>
@@ -10523,7 +10666,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>298</v>
       </c>
@@ -10549,7 +10692,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>301</v>
       </c>
@@ -10575,7 +10718,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>304</v>
       </c>
@@ -10601,7 +10744,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>306</v>
       </c>
@@ -10627,7 +10770,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>309</v>
       </c>
@@ -10654,7 +10797,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>312</v>
       </c>
@@ -10680,7 +10823,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>315</v>
       </c>
@@ -10706,7 +10849,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>318</v>
       </c>
@@ -10732,7 +10875,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>321</v>
       </c>
@@ -10758,7 +10901,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>323</v>
       </c>
@@ -10784,7 +10927,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>339</v>
       </c>
@@ -10810,7 +10953,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>343</v>
       </c>
@@ -10836,7 +10979,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>346</v>
       </c>
@@ -10862,7 +11005,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>349</v>
       </c>
@@ -10888,7 +11031,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>352</v>
       </c>
@@ -10914,7 +11057,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>355</v>
       </c>
@@ -10940,7 +11083,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>358</v>
       </c>
@@ -10966,7 +11109,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>361</v>
       </c>
@@ -10992,7 +11135,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>364</v>
       </c>
@@ -11018,7 +11161,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>367</v>
       </c>
@@ -11044,7 +11187,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>370</v>
       </c>
@@ -11070,7 +11213,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>373</v>
       </c>
@@ -11096,7 +11239,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>375</v>
       </c>
@@ -11118,11 +11261,11 @@
       <c r="G117" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H117" s="22" t="s">
+      <c r="H117" s="21" t="s">
         <v>2488</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>377</v>
       </c>
@@ -11145,7 +11288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>379</v>
       </c>
@@ -11168,7 +11311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>381</v>
       </c>
@@ -11194,7 +11337,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>384</v>
       </c>
@@ -11217,7 +11360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>386</v>
       </c>
@@ -11240,7 +11383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>388</v>
       </c>
@@ -11266,7 +11409,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>391</v>
       </c>
@@ -11292,7 +11435,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>394</v>
       </c>
@@ -11318,7 +11461,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>397</v>
       </c>
@@ -11344,7 +11487,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>400</v>
       </c>
@@ -11370,7 +11513,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>403</v>
       </c>
@@ -11392,9 +11535,9 @@
       <c r="G128" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H128" s="23"/>
-    </row>
-    <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H128" s="22"/>
+    </row>
+    <row r="129" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>405</v>
       </c>
@@ -11420,7 +11563,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>408</v>
       </c>
@@ -11446,7 +11589,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>411</v>
       </c>
@@ -11472,7 +11615,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>413</v>
       </c>
@@ -11494,11 +11637,11 @@
       <c r="G132" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H132" s="22" t="s">
+      <c r="H132" s="21" t="s">
         <v>2490</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>415</v>
       </c>
@@ -11524,7 +11667,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>418</v>
       </c>
@@ -11550,7 +11693,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>420</v>
       </c>
@@ -11576,7 +11719,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>422</v>
       </c>
@@ -11602,7 +11745,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>425</v>
       </c>
@@ -11628,7 +11771,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>428</v>
       </c>
@@ -11654,7 +11797,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>431</v>
       </c>
@@ -11680,7 +11823,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>434</v>
       </c>
@@ -11702,11 +11845,11 @@
       <c r="G140" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H140" s="22" t="s">
+      <c r="H140" s="21" t="s">
         <v>2485</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>437</v>
       </c>
@@ -11732,7 +11875,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>440</v>
       </c>
@@ -11754,11 +11897,11 @@
       <c r="G142" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H142" s="22" t="s">
+      <c r="H142" s="21" t="s">
         <v>2493</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>443</v>
       </c>
@@ -11784,7 +11927,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>446</v>
       </c>
@@ -11810,7 +11953,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>449</v>
       </c>
@@ -11836,7 +11979,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>452</v>
       </c>
@@ -11862,7 +12005,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>455</v>
       </c>
@@ -11888,7 +12031,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>458</v>
       </c>
@@ -11914,7 +12057,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>461</v>
       </c>
@@ -11940,7 +12083,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>463</v>
       </c>
@@ -11962,12 +12105,12 @@
       <c r="G150" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H150" s="22" t="s">
+      <c r="H150" s="21" t="s">
         <v>2487</v>
       </c>
       <c r="J150" s="6"/>
     </row>
-    <row r="151" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>465</v>
       </c>
@@ -11993,7 +12136,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>468</v>
       </c>
@@ -12016,7 +12159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>470</v>
       </c>
@@ -12042,7 +12185,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>473</v>
       </c>
@@ -12068,7 +12211,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>476</v>
       </c>
@@ -12094,7 +12237,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>479</v>
       </c>
@@ -12120,7 +12263,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>482</v>
       </c>
@@ -12146,7 +12289,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>485</v>
       </c>
@@ -12172,7 +12315,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>488</v>
       </c>
@@ -12194,11 +12337,11 @@
       <c r="G159" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H159" s="22" t="s">
+      <c r="H159" s="21" t="s">
         <v>2491</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>490</v>
       </c>
@@ -12224,7 +12367,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>493</v>
       </c>
@@ -12250,7 +12393,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>496</v>
       </c>
@@ -12276,7 +12419,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>499</v>
       </c>
@@ -12302,7 +12445,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>502</v>
       </c>
@@ -12327,11 +12470,11 @@
       <c r="H164" s="6" t="s">
         <v>2146</v>
       </c>
-      <c r="J164" s="20" t="s">
+      <c r="J164" s="19" t="s">
         <v>2147</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>504</v>
       </c>
@@ -12353,11 +12496,11 @@
       <c r="G165" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H165" s="22" t="s">
+      <c r="H165" s="21" t="s">
         <v>2492</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>507</v>
       </c>
@@ -12383,7 +12526,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>510</v>
       </c>
@@ -12409,7 +12552,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>513</v>
       </c>
@@ -12435,7 +12578,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>516</v>
       </c>
@@ -12458,7 +12601,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>519</v>
       </c>
@@ -12484,7 +12627,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>522</v>
       </c>
@@ -12507,7 +12650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>524</v>
       </c>
@@ -12533,7 +12676,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>527</v>
       </c>
@@ -12559,7 +12702,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>529</v>
       </c>
@@ -12581,11 +12724,11 @@
       <c r="G174" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H174" s="22" t="s">
+      <c r="H174" s="21" t="s">
         <v>2484</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>531</v>
       </c>
@@ -12611,7 +12754,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>533</v>
       </c>
@@ -12637,7 +12780,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>535</v>
       </c>
@@ -12663,7 +12806,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>537</v>
       </c>
@@ -12689,7 +12832,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>539</v>
       </c>
@@ -12715,7 +12858,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>541</v>
       </c>
@@ -12741,7 +12884,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>544</v>
       </c>
@@ -12767,7 +12910,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>547</v>
       </c>
@@ -12789,11 +12932,11 @@
       <c r="G182" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H182" s="22" t="s">
+      <c r="H182" s="21" t="s">
         <v>2486</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>551</v>
       </c>
@@ -12819,7 +12962,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>554</v>
       </c>
@@ -12841,9 +12984,11 @@
       <c r="G184" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H184" s="17"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H184" s="21" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>556</v>
       </c>
@@ -12869,7 +13014,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>559</v>
       </c>
@@ -12895,7 +13040,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>562</v>
       </c>
@@ -12921,7 +13066,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>565</v>
       </c>
@@ -12947,7 +13092,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>568</v>
       </c>
@@ -12973,7 +13118,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>571</v>
       </c>
@@ -12999,7 +13144,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>573</v>
       </c>
@@ -13021,12 +13166,12 @@
       <c r="G191" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H191" s="22" t="s">
+      <c r="H191" s="21" t="s">
         <v>2489</v>
       </c>
       <c r="J191" s="6"/>
     </row>
-    <row r="192" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>575</v>
       </c>
@@ -13052,7 +13197,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>579</v>
       </c>
@@ -13078,7 +13223,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>582</v>
       </c>
@@ -13104,7 +13249,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>585</v>
       </c>
@@ -13130,7 +13275,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>588</v>
       </c>
@@ -13153,7 +13298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>591</v>
       </c>
@@ -13175,9 +13320,11 @@
       <c r="G197" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="H197" s="17"/>
-    </row>
-    <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H197" s="21" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>594</v>
       </c>
@@ -13200,7 +13347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>597</v>
       </c>
@@ -13224,7 +13371,7 @@
       </c>
       <c r="H199" s="6"/>
     </row>
-    <row r="200" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>600</v>
       </c>
@@ -13250,7 +13397,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>603</v>
       </c>
@@ -13276,7 +13423,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>606</v>
       </c>
@@ -13302,7 +13449,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>608</v>
       </c>
@@ -13328,7 +13475,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>610</v>
       </c>
@@ -13351,7 +13498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>612</v>
       </c>
@@ -13374,7 +13521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>614</v>
       </c>
@@ -13400,7 +13547,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>616</v>
       </c>
@@ -13426,7 +13573,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>618</v>
       </c>
@@ -13452,7 +13599,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>621</v>
       </c>
@@ -13478,7 +13625,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>624</v>
       </c>
@@ -13504,7 +13651,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>627</v>
       </c>
@@ -13530,7 +13677,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>629</v>
       </c>
@@ -13553,7 +13700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>631</v>
       </c>
@@ -13576,7 +13723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>633</v>
       </c>
@@ -13599,7 +13746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>635</v>
       </c>
@@ -13622,7 +13769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>637</v>
       </c>
@@ -13645,7 +13792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>639</v>
       </c>
@@ -13668,7 +13815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>641</v>
       </c>
@@ -13694,7 +13841,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>644</v>
       </c>
@@ -13717,7 +13864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>646</v>
       </c>
@@ -13740,7 +13887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>648</v>
       </c>
@@ -13763,7 +13910,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>651</v>
       </c>
@@ -13789,7 +13936,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>654</v>
       </c>
@@ -13815,7 +13962,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>657</v>
       </c>
@@ -13841,7 +13988,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>660</v>
       </c>
@@ -13867,7 +14014,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>662</v>
       </c>
@@ -13893,7 +14040,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>665</v>
       </c>
@@ -13919,7 +14066,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>667</v>
       </c>
@@ -13945,7 +14092,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>669</v>
       </c>
@@ -13968,7 +14115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>672</v>
       </c>
@@ -13991,7 +14138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>675</v>
       </c>
@@ -14017,7 +14164,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>678</v>
       </c>
@@ -14043,7 +14190,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>680</v>
       </c>
@@ -14069,7 +14216,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>682</v>
       </c>
@@ -14095,7 +14242,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>684</v>
       </c>
@@ -14121,7 +14268,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>686</v>
       </c>
@@ -14144,7 +14291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>689</v>
       </c>
@@ -14170,7 +14317,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>691</v>
       </c>
@@ -14193,7 +14340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>694</v>
       </c>
@@ -14219,7 +14366,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>696</v>
       </c>
@@ -14245,7 +14392,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>698</v>
       </c>
@@ -14271,7 +14418,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>700</v>
       </c>
@@ -14297,7 +14444,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>703</v>
       </c>
@@ -14323,7 +14470,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>706</v>
       </c>
@@ -14349,7 +14496,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>709</v>
       </c>
@@ -14375,7 +14522,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>712</v>
       </c>
@@ -14401,7 +14548,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>714</v>
       </c>
@@ -14427,7 +14574,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>717</v>
       </c>
@@ -14453,7 +14600,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>2067</v>
       </c>
@@ -14475,9 +14622,11 @@
       <c r="G249" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H249" s="17"/>
-    </row>
-    <row r="250" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H249" s="21" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>720</v>
       </c>
@@ -14499,9 +14648,11 @@
       <c r="G250" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H250" s="17"/>
-    </row>
-    <row r="251" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H250" s="21" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>723</v>
       </c>
@@ -14523,9 +14674,11 @@
       <c r="G251" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H251" s="17"/>
-    </row>
-    <row r="252" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H251" s="21" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>726</v>
       </c>
@@ -14547,9 +14700,11 @@
       <c r="G252" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H252" s="17"/>
-    </row>
-    <row r="253" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H252" s="21" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>729</v>
       </c>
@@ -14572,7 +14727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>732</v>
       </c>
@@ -14595,7 +14750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>735</v>
       </c>
@@ -14621,7 +14776,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>738</v>
       </c>
@@ -14647,7 +14802,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>741</v>
       </c>
@@ -14673,7 +14828,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>743</v>
       </c>
@@ -14699,7 +14854,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>745</v>
       </c>
@@ -14725,7 +14880,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>748</v>
       </c>
@@ -14751,7 +14906,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>750</v>
       </c>
@@ -14777,7 +14932,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>752</v>
       </c>
@@ -14803,7 +14958,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>754</v>
       </c>
@@ -14829,7 +14984,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>756</v>
       </c>
@@ -14855,7 +15010,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>758</v>
       </c>
@@ -14878,7 +15033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>761</v>
       </c>
@@ -14904,7 +15059,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>764</v>
       </c>
@@ -14930,7 +15085,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>767</v>
       </c>
@@ -14953,7 +15108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>770</v>
       </c>
@@ -14979,7 +15134,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>772</v>
       </c>
@@ -15005,7 +15160,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>775</v>
       </c>
@@ -15031,7 +15186,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>778</v>
       </c>
@@ -15054,7 +15209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>781</v>
       </c>
@@ -15080,7 +15235,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>783</v>
       </c>
@@ -15106,7 +15261,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>786</v>
       </c>
@@ -15132,7 +15287,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>789</v>
       </c>
@@ -15158,7 +15313,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>792</v>
       </c>
@@ -15184,7 +15339,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>795</v>
       </c>
@@ -15210,7 +15365,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>798</v>
       </c>
@@ -15236,7 +15391,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>800</v>
       </c>
@@ -15262,7 +15417,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>803</v>
       </c>
@@ -15285,7 +15440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>806</v>
       </c>
@@ -15311,7 +15466,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>808</v>
       </c>
@@ -15337,7 +15492,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>810</v>
       </c>
@@ -15363,7 +15518,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>812</v>
       </c>
@@ -15389,7 +15544,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>814</v>
       </c>
@@ -15415,7 +15570,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>816</v>
       </c>
@@ -15441,7 +15596,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>819</v>
       </c>
@@ -15471,7 +15626,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>821</v>
       </c>
@@ -15494,7 +15649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>823</v>
       </c>
@@ -15517,7 +15672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>825</v>
       </c>
@@ -15543,7 +15698,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>828</v>
       </c>
@@ -15569,7 +15724,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>831</v>
       </c>
@@ -15595,7 +15750,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>834</v>
       </c>
@@ -15621,7 +15776,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>837</v>
       </c>
@@ -15647,7 +15802,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>840</v>
       </c>
@@ -15673,7 +15828,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>843</v>
       </c>
@@ -15703,7 +15858,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>845</v>
       </c>
@@ -15729,7 +15884,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>847</v>
       </c>
@@ -15755,7 +15910,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>850</v>
       </c>
@@ -15781,7 +15936,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>853</v>
       </c>
@@ -15807,7 +15962,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>855</v>
       </c>
@@ -15833,7 +15988,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>857</v>
       </c>
@@ -15859,7 +16014,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>860</v>
       </c>
@@ -15889,7 +16044,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>862</v>
       </c>
@@ -15915,7 +16070,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>866</v>
       </c>
@@ -15941,7 +16096,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>869</v>
       </c>
@@ -15967,7 +16122,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>872</v>
       </c>
@@ -15993,7 +16148,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>875</v>
       </c>
@@ -16019,7 +16174,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>878</v>
       </c>
@@ -16045,7 +16200,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>880</v>
       </c>
@@ -16068,7 +16223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>882</v>
       </c>
@@ -16091,7 +16246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>884</v>
       </c>
@@ -16113,12 +16268,14 @@
       <c r="G313" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H313" s="17"/>
-      <c r="J313" s="20" t="s">
+      <c r="H313" s="21" t="s">
+        <v>2526</v>
+      </c>
+      <c r="J313" s="19" t="s">
         <v>2186</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>887</v>
       </c>
@@ -16144,7 +16301,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>890</v>
       </c>
@@ -16170,7 +16327,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>893</v>
       </c>
@@ -16196,7 +16353,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>896</v>
       </c>
@@ -16222,7 +16379,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>899</v>
       </c>
@@ -16248,7 +16405,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>902</v>
       </c>
@@ -16271,7 +16428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>904</v>
       </c>
@@ -16294,7 +16451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>906</v>
       </c>
@@ -16320,7 +16477,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>908</v>
       </c>
@@ -16346,7 +16503,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>910</v>
       </c>
@@ -16368,11 +16525,11 @@
       <c r="G323" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H323" s="6" t="s">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H323" s="23" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>912</v>
       </c>
@@ -16394,12 +16551,14 @@
       <c r="G324" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H324" s="17"/>
-      <c r="J324" s="21" t="s">
+      <c r="H324" s="21" t="s">
+        <v>2508</v>
+      </c>
+      <c r="J324" s="20" t="s">
         <v>2256</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>914</v>
       </c>
@@ -16421,12 +16580,14 @@
       <c r="G325" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H325" s="17"/>
+      <c r="H325" s="21" t="s">
+        <v>2510</v>
+      </c>
       <c r="I325" s="6" t="s">
         <v>2245</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>916</v>
       </c>
@@ -16448,12 +16609,14 @@
       <c r="G326" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H326" s="17"/>
+      <c r="H326" s="21" t="s">
+        <v>2515</v>
+      </c>
       <c r="I326" s="6" t="s">
         <v>2248</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>918</v>
       </c>
@@ -16480,7 +16643,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>920</v>
       </c>
@@ -16506,7 +16669,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>923</v>
       </c>
@@ -16532,7 +16695,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>925</v>
       </c>
@@ -16555,7 +16718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>927</v>
       </c>
@@ -16578,7 +16741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>929</v>
       </c>
@@ -16601,7 +16764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>931</v>
       </c>
@@ -16624,7 +16787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>933</v>
       </c>
@@ -16647,7 +16810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>935</v>
       </c>
@@ -16670,7 +16833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>937</v>
       </c>
@@ -16693,7 +16856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>939</v>
       </c>
@@ -16716,7 +16879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>941</v>
       </c>
@@ -16738,9 +16901,11 @@
       <c r="G338" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H338" s="17"/>
-    </row>
-    <row r="339" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H338" s="21" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>943</v>
       </c>
@@ -16766,7 +16931,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>946</v>
       </c>
@@ -16792,7 +16957,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>948</v>
       </c>
@@ -16818,7 +16983,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>950</v>
       </c>
@@ -16844,7 +17009,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>952</v>
       </c>
@@ -16870,7 +17035,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>954</v>
       </c>
@@ -16896,7 +17061,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>956</v>
       </c>
@@ -16922,7 +17087,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>958</v>
       </c>
@@ -16948,7 +17113,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>961</v>
       </c>
@@ -16974,7 +17139,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>964</v>
       </c>
@@ -17000,7 +17165,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>967</v>
       </c>
@@ -17026,7 +17191,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>969</v>
       </c>
@@ -17049,7 +17214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>971</v>
       </c>
@@ -17072,7 +17237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>973</v>
       </c>
@@ -17098,7 +17263,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>976</v>
       </c>
@@ -17124,7 +17289,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>979</v>
       </c>
@@ -17150,7 +17315,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>981</v>
       </c>
@@ -17176,7 +17341,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>984</v>
       </c>
@@ -17202,7 +17367,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>986</v>
       </c>
@@ -17228,7 +17393,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>989</v>
       </c>
@@ -17254,7 +17419,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>991</v>
       </c>
@@ -17280,7 +17445,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>993</v>
       </c>
@@ -17306,7 +17471,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>996</v>
       </c>
@@ -17332,7 +17497,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>999</v>
       </c>
@@ -17358,7 +17523,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>1001</v>
       </c>
@@ -17384,7 +17549,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>1004</v>
       </c>
@@ -17410,7 +17575,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>1006</v>
       </c>
@@ -17436,7 +17601,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>1008</v>
       </c>
@@ -17462,7 +17627,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>1010</v>
       </c>
@@ -17488,7 +17653,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>1012</v>
       </c>
@@ -17514,7 +17679,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>1014</v>
       </c>
@@ -17540,7 +17705,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>1016</v>
       </c>
@@ -17563,7 +17728,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>1019</v>
       </c>
@@ -17589,7 +17754,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>1021</v>
       </c>
@@ -17615,7 +17780,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>1023</v>
       </c>
@@ -17641,7 +17806,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>1025</v>
       </c>
@@ -17667,7 +17832,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>1027</v>
       </c>
@@ -17693,7 +17858,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>1029</v>
       </c>
@@ -17719,7 +17884,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>1031</v>
       </c>
@@ -17745,7 +17910,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>1034</v>
       </c>
@@ -17771,7 +17936,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>1036</v>
       </c>
@@ -17797,7 +17962,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>1039</v>
       </c>
@@ -17823,7 +17988,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>1042</v>
       </c>
@@ -17849,7 +18014,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>1045</v>
       </c>
@@ -17875,7 +18040,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>1048</v>
       </c>
@@ -17901,7 +18066,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>1051</v>
       </c>
@@ -17927,7 +18092,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>1053</v>
       </c>
@@ -17953,7 +18118,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>1055</v>
       </c>
@@ -17979,7 +18144,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>1058</v>
       </c>
@@ -18005,7 +18170,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>1061</v>
       </c>
@@ -18031,7 +18196,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>1064</v>
       </c>
@@ -18057,7 +18222,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>1067</v>
       </c>
@@ -18079,9 +18244,11 @@
       <c r="G390" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H390" s="17"/>
-    </row>
-    <row r="391" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H390" s="21" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>1070</v>
       </c>
@@ -18107,7 +18274,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>1073</v>
       </c>
@@ -18133,7 +18300,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>1076</v>
       </c>
@@ -18159,7 +18326,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>1079</v>
       </c>
@@ -18185,7 +18352,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>1082</v>
       </c>
@@ -18211,7 +18378,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>1084</v>
       </c>
@@ -18237,7 +18404,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>1087</v>
       </c>
@@ -18263,7 +18430,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>1090</v>
       </c>
@@ -18289,7 +18456,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>1093</v>
       </c>
@@ -18315,7 +18482,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>1096</v>
       </c>
@@ -18341,7 +18508,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>1098</v>
       </c>
@@ -18363,9 +18530,11 @@
       <c r="G401" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H401" s="17"/>
-    </row>
-    <row r="402" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H401" s="21" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>1100</v>
       </c>
@@ -18391,7 +18560,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>1102</v>
       </c>
@@ -18417,7 +18586,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>1104</v>
       </c>
@@ -18443,7 +18612,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>1106</v>
       </c>
@@ -18469,7 +18638,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>1108</v>
       </c>
@@ -18495,7 +18664,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>1110</v>
       </c>
@@ -18521,7 +18690,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>1113</v>
       </c>
@@ -18547,7 +18716,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>1116</v>
       </c>
@@ -18573,7 +18742,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>1118</v>
       </c>
@@ -18595,7 +18764,9 @@
       <c r="G410" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H410" s="7"/>
+      <c r="H410" s="21" t="s">
+        <v>2498</v>
+      </c>
       <c r="I410" s="6" t="s">
         <v>2246</v>
       </c>
@@ -18603,7 +18774,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>1120</v>
       </c>
@@ -18625,12 +18796,14 @@
       <c r="G411" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H411" s="17"/>
-      <c r="J411" s="21" t="s">
+      <c r="H411" s="21" t="s">
+        <v>2507</v>
+      </c>
+      <c r="J411" s="20" t="s">
         <v>2256</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>1122</v>
       </c>
@@ -18652,7 +18825,9 @@
       <c r="G412" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H412" s="17"/>
+      <c r="H412" s="21" t="s">
+        <v>2511</v>
+      </c>
       <c r="I412" s="6" t="s">
         <v>2245</v>
       </c>
@@ -18660,7 +18835,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>1124</v>
       </c>
@@ -18682,12 +18857,12 @@
       <c r="G413" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H413" s="6" t="s">
-        <v>2282</v>
+      <c r="H413" s="21" t="s">
+        <v>2514</v>
       </c>
       <c r="I413" s="6"/>
     </row>
-    <row r="414" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>1126</v>
       </c>
@@ -18709,9 +18884,7 @@
       <c r="G414" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H414" s="6" t="s">
-        <v>2281</v>
-      </c>
+      <c r="H414" s="7"/>
       <c r="I414" s="6" t="s">
         <v>2247</v>
       </c>
@@ -18719,7 +18892,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>1128</v>
       </c>
@@ -18742,7 +18915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>1130</v>
       </c>
@@ -18764,8 +18937,11 @@
       <c r="G416" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="417" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H416" s="21" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>1132</v>
       </c>
@@ -18791,7 +18967,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>1135</v>
       </c>
@@ -18817,7 +18993,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>1137</v>
       </c>
@@ -18843,7 +19019,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>1139</v>
       </c>
@@ -18873,7 +19049,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>1141</v>
       </c>
@@ -18899,7 +19075,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>1143</v>
       </c>
@@ -18921,9 +19097,11 @@
       <c r="G422" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H422" s="17"/>
-    </row>
-    <row r="423" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H422" s="21" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>1145</v>
       </c>
@@ -18949,7 +19127,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>1147</v>
       </c>
@@ -18975,7 +19153,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>1150</v>
       </c>
@@ -19001,7 +19179,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>1152</v>
       </c>
@@ -19027,7 +19205,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>1154</v>
       </c>
@@ -19053,7 +19231,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>1156</v>
       </c>
@@ -19075,12 +19253,14 @@
       <c r="G428" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H428" s="17"/>
+      <c r="H428" s="21" t="s">
+        <v>2524</v>
+      </c>
       <c r="J428" s="14" t="s">
         <v>2265</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>1158</v>
       </c>
@@ -19106,7 +19286,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>1160</v>
       </c>
@@ -19128,11 +19308,11 @@
       <c r="G430" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H430" s="6" t="s">
+      <c r="H430" s="21" t="s">
         <v>2269</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>1162</v>
       </c>
@@ -19154,9 +19334,11 @@
       <c r="G431" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H431" s="17"/>
-    </row>
-    <row r="432" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H431" s="24" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>1164</v>
       </c>
@@ -19182,7 +19364,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>1166</v>
       </c>
@@ -19208,7 +19390,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>1168</v>
       </c>
@@ -19234,7 +19416,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>1171</v>
       </c>
@@ -19260,7 +19442,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>1173</v>
       </c>
@@ -19286,7 +19468,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>1175</v>
       </c>
@@ -19312,7 +19494,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>1177</v>
       </c>
@@ -19338,7 +19520,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>1179</v>
       </c>
@@ -19364,7 +19546,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>1181</v>
       </c>
@@ -19393,7 +19575,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>1183</v>
       </c>
@@ -19419,7 +19601,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>1186</v>
       </c>
@@ -19442,7 +19624,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>1189</v>
       </c>
@@ -19468,7 +19650,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>1191</v>
       </c>
@@ -19494,7 +19676,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>1193</v>
       </c>
@@ -19520,7 +19702,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>1195</v>
       </c>
@@ -19549,7 +19731,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>1197</v>
       </c>
@@ -19575,7 +19757,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>1199</v>
       </c>
@@ -19601,7 +19783,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>1201</v>
       </c>
@@ -19627,7 +19809,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="450" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19649,14 +19831,14 @@
       <c r="G450" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H450" s="22" t="s">
+      <c r="H450" s="21" t="s">
         <v>2494</v>
       </c>
       <c r="J450" s="11" t="s">
         <v>2214</v>
       </c>
     </row>
-    <row r="451" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>1206</v>
       </c>
@@ -19682,7 +19864,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="452" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>1209</v>
       </c>
@@ -19708,7 +19890,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="453" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>1211</v>
       </c>
@@ -19734,7 +19916,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="454" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>1213</v>
       </c>
@@ -19760,7 +19942,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>1216</v>
       </c>
@@ -19786,7 +19968,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>1218</v>
       </c>
@@ -19812,7 +19994,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>1220</v>
       </c>
@@ -19838,7 +20020,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="458" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>1222</v>
       </c>
@@ -19865,7 +20047,7 @@
       </c>
       <c r="I458" s="10"/>
     </row>
-    <row r="459" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>1224</v>
       </c>
@@ -19891,7 +20073,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="460" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>1227</v>
       </c>
@@ -19917,7 +20099,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>1230</v>
       </c>
@@ -19943,7 +20125,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>1232</v>
       </c>
@@ -19969,7 +20151,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="463" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>1235</v>
       </c>
@@ -19995,7 +20177,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>1238</v>
       </c>
@@ -20021,7 +20203,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="465" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>1240</v>
       </c>
@@ -20047,7 +20229,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>1242</v>
       </c>
@@ -20073,7 +20255,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="467" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>1244</v>
       </c>
@@ -20100,7 +20282,7 @@
       </c>
       <c r="I467" s="11"/>
     </row>
-    <row r="468" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>1247</v>
       </c>
@@ -20126,7 +20308,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="469" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>1250</v>
       </c>
@@ -20152,7 +20334,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="470" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>1253</v>
       </c>
@@ -20178,7 +20360,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="471" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>1255</v>
       </c>
@@ -20204,7 +20386,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="472" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>1258</v>
       </c>
@@ -20230,7 +20412,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="473" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>1261</v>
       </c>
@@ -20256,7 +20438,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>1264</v>
       </c>
@@ -20282,7 +20464,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="475" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>1267</v>
       </c>
@@ -20308,7 +20490,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="476" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>1270</v>
       </c>
@@ -20334,7 +20516,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="477" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>1272</v>
       </c>
@@ -20360,7 +20542,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="478" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>1274</v>
       </c>
@@ -20382,14 +20564,14 @@
       <c r="G478" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H478" s="22" t="s">
+      <c r="H478" s="21" t="s">
         <v>2495</v>
       </c>
-      <c r="J478" s="20" t="s">
+      <c r="J478" s="19" t="s">
         <v>2210</v>
       </c>
     </row>
-    <row r="479" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>1277</v>
       </c>
@@ -20415,7 +20597,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>1279</v>
       </c>
@@ -20441,7 +20623,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>1281</v>
       </c>
@@ -20467,7 +20649,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>1283</v>
       </c>
@@ -20493,7 +20675,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>1285</v>
       </c>
@@ -20519,7 +20701,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>1287</v>
       </c>
@@ -20545,7 +20727,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>1290</v>
       </c>
@@ -20571,7 +20753,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>1292</v>
       </c>
@@ -20597,7 +20779,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>1295</v>
       </c>
@@ -20623,7 +20805,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>1299</v>
       </c>
@@ -20649,7 +20831,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>1302</v>
       </c>
@@ -20675,7 +20857,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>1305</v>
       </c>
@@ -20702,7 +20884,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>1307</v>
       </c>
@@ -20728,7 +20910,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>1309</v>
       </c>
@@ -20754,7 +20936,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="493" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>1311</v>
       </c>
@@ -20780,7 +20962,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>1313</v>
       </c>
@@ -20806,7 +20988,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="495" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>1315</v>
       </c>
@@ -20832,7 +21014,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>1317</v>
       </c>
@@ -20858,7 +21040,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>1319</v>
       </c>
@@ -20884,7 +21066,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>1321</v>
       </c>
@@ -20910,7 +21092,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>1324</v>
       </c>
@@ -20936,7 +21118,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>1327</v>
       </c>
@@ -20962,7 +21144,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>1330</v>
       </c>
@@ -20988,7 +21170,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>1333</v>
       </c>
@@ -21014,7 +21196,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>1336</v>
       </c>
@@ -21040,7 +21222,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>1338</v>
       </c>
@@ -21066,7 +21248,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>1340</v>
       </c>
@@ -21092,7 +21274,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>1343</v>
       </c>
@@ -21118,7 +21300,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>1345</v>
       </c>
@@ -21144,7 +21326,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>1347</v>
       </c>
@@ -21170,7 +21352,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>1350</v>
       </c>
@@ -21196,7 +21378,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>1352</v>
       </c>
@@ -21222,7 +21404,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>1354</v>
       </c>
@@ -21248,7 +21430,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>1356</v>
       </c>
@@ -21274,7 +21456,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>1359</v>
       </c>
@@ -21300,7 +21482,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>1362</v>
       </c>
@@ -21326,7 +21508,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>1365</v>
       </c>
@@ -21352,7 +21534,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>1368</v>
       </c>
@@ -21378,7 +21560,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>1371</v>
       </c>
@@ -21404,7 +21586,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>1374</v>
       </c>
@@ -21430,7 +21612,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>1377</v>
       </c>
@@ -21456,7 +21638,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>1380</v>
       </c>
@@ -21482,7 +21664,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>1383</v>
       </c>
@@ -21508,7 +21690,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>1386</v>
       </c>
@@ -21534,7 +21716,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>1389</v>
       </c>
@@ -21560,7 +21742,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="524" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>1392</v>
       </c>
@@ -21586,7 +21768,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>1395</v>
       </c>
@@ -21612,7 +21794,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>1397</v>
       </c>
@@ -21634,15 +21816,17 @@
       <c r="G526" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H526" s="17"/>
+      <c r="H526" s="23" t="s">
+        <v>2496</v>
+      </c>
       <c r="I526" s="6" t="s">
         <v>2246</v>
       </c>
-      <c r="J526" s="20" t="s">
+      <c r="J526" s="19" t="s">
         <v>2255</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>1399</v>
       </c>
@@ -21664,12 +21848,14 @@
       <c r="G527" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H527" s="17"/>
-      <c r="J527" s="21" t="s">
+      <c r="H527" s="21" t="s">
+        <v>2509</v>
+      </c>
+      <c r="J527" s="20" t="s">
         <v>2256</v>
       </c>
     </row>
-    <row r="528" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>1401</v>
       </c>
@@ -21691,12 +21877,14 @@
       <c r="G528" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H528" s="17"/>
-      <c r="J528" s="21" t="s">
+      <c r="H528" s="21" t="s">
+        <v>2512</v>
+      </c>
+      <c r="J528" s="20" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>1403</v>
       </c>
@@ -21718,12 +21906,12 @@
       <c r="G529" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H529" s="6" t="s">
-        <v>2279</v>
+      <c r="H529" s="21" t="s">
+        <v>2516</v>
       </c>
       <c r="I529" s="6"/>
     </row>
-    <row r="530" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>1405</v>
       </c>
@@ -21749,7 +21937,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>1407</v>
       </c>
@@ -21775,7 +21963,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>1409</v>
       </c>
@@ -21797,9 +21985,11 @@
       <c r="G532" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H532" s="17"/>
-    </row>
-    <row r="533" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H532" s="21" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>1411</v>
       </c>
@@ -21825,7 +22015,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="534" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>1415</v>
       </c>
@@ -21851,7 +22041,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>1418</v>
       </c>
@@ -21877,7 +22067,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="536" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>1421</v>
       </c>
@@ -21903,7 +22093,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>1424</v>
       </c>
@@ -21929,7 +22119,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>2071</v>
       </c>
@@ -21951,9 +22141,9 @@
       <c r="G538" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H538" s="17"/>
-    </row>
-    <row r="539" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H538" s="15"/>
+    </row>
+    <row r="539" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>1426</v>
       </c>
@@ -21976,7 +22166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>1428</v>
       </c>
@@ -21999,7 +22189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>1431</v>
       </c>
@@ -22022,7 +22212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>1434</v>
       </c>
@@ -22045,7 +22235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>1437</v>
       </c>
@@ -22068,7 +22258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>1440</v>
       </c>
@@ -22091,7 +22281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>1442</v>
       </c>
@@ -22114,7 +22304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>1445</v>
       </c>
@@ -22137,7 +22327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>1448</v>
       </c>
@@ -22160,7 +22350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>1451</v>
       </c>
@@ -22183,7 +22373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>1454</v>
       </c>
@@ -22206,7 +22396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>1457</v>
       </c>
@@ -22229,7 +22419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>1460</v>
       </c>
@@ -22252,7 +22442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>1463</v>
       </c>
@@ -22275,7 +22465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>1465</v>
       </c>
@@ -22301,7 +22491,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>1468</v>
       </c>
@@ -22327,7 +22517,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>1470</v>
       </c>
@@ -22353,7 +22543,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>1473</v>
       </c>
@@ -22379,7 +22569,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>1476</v>
       </c>
@@ -22405,7 +22595,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>1478</v>
       </c>
@@ -22431,7 +22621,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>1481</v>
       </c>
@@ -22457,7 +22647,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>1484</v>
       </c>
@@ -22483,7 +22673,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>1487</v>
       </c>
@@ -22509,7 +22699,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>1490</v>
       </c>
@@ -22536,7 +22726,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>1493</v>
       </c>
@@ -22560,7 +22750,7 @@
       </c>
       <c r="H563" s="17"/>
     </row>
-    <row r="564" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>1495</v>
       </c>
@@ -22584,7 +22774,7 @@
       </c>
       <c r="H564" s="17"/>
     </row>
-    <row r="565" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>1497</v>
       </c>
@@ -22608,7 +22798,7 @@
       </c>
       <c r="H565" s="17"/>
     </row>
-    <row r="566" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>1499</v>
       </c>
@@ -22632,7 +22822,7 @@
       </c>
       <c r="H566" s="17"/>
     </row>
-    <row r="567" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>1501</v>
       </c>
@@ -22656,7 +22846,7 @@
       </c>
       <c r="H567" s="17"/>
     </row>
-    <row r="568" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>1503</v>
       </c>
@@ -22680,7 +22870,7 @@
       </c>
       <c r="H568" s="17"/>
     </row>
-    <row r="569" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>1505</v>
       </c>
@@ -22704,7 +22894,7 @@
       </c>
       <c r="H569" s="17"/>
     </row>
-    <row r="570" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>1507</v>
       </c>
@@ -22728,7 +22918,7 @@
       </c>
       <c r="H570" s="17"/>
     </row>
-    <row r="571" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>1509</v>
       </c>
@@ -22752,7 +22942,7 @@
       </c>
       <c r="H571" s="17"/>
     </row>
-    <row r="572" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>1511</v>
       </c>
@@ -22778,7 +22968,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="573" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>1513</v>
       </c>
@@ -22804,7 +22994,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>1516</v>
       </c>
@@ -22830,7 +23020,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>1519</v>
       </c>
@@ -22853,7 +23043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="576" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>1522</v>
       </c>
@@ -22879,7 +23069,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>1524</v>
       </c>
@@ -22905,7 +23095,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>1526</v>
       </c>
@@ -22931,7 +23121,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>1528</v>
       </c>
@@ -22957,7 +23147,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>1531</v>
       </c>
@@ -22983,7 +23173,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>1533</v>
       </c>
@@ -23011,7 +23201,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>1535</v>
       </c>
@@ -23037,7 +23227,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>1538</v>
       </c>
@@ -23063,7 +23253,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>1541</v>
       </c>
@@ -23086,7 +23276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>1543</v>
       </c>
@@ -23112,7 +23302,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>1545</v>
       </c>
@@ -23138,7 +23328,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="587" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>1547</v>
       </c>
@@ -23161,7 +23351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>1550</v>
       </c>
@@ -23187,7 +23377,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>1553</v>
       </c>
@@ -23210,7 +23400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>1556</v>
       </c>
@@ -23237,7 +23427,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>1558</v>
       </c>
@@ -23263,7 +23453,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="592" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>1560</v>
       </c>
@@ -23289,7 +23479,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="593" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>1563</v>
       </c>
@@ -23311,9 +23501,11 @@
       <c r="G593" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H593" s="17"/>
-    </row>
-    <row r="594" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H593" s="21" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>1566</v>
       </c>
@@ -23337,7 +23529,7 @@
       </c>
       <c r="H594" s="17"/>
     </row>
-    <row r="595" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>1569</v>
       </c>
@@ -23361,7 +23553,7 @@
       </c>
       <c r="H595" s="17"/>
     </row>
-    <row r="596" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>1572</v>
       </c>
@@ -23387,7 +23579,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>1574</v>
       </c>
@@ -23410,7 +23602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>1577</v>
       </c>
@@ -23436,7 +23628,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="599" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>1580</v>
       </c>
@@ -23462,7 +23654,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="600" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>1583</v>
       </c>
@@ -23488,7 +23680,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="601" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>1585</v>
       </c>
@@ -23514,7 +23706,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>1588</v>
       </c>
@@ -23540,7 +23732,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>1590</v>
       </c>
@@ -23563,7 +23755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="604" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>1592</v>
       </c>
@@ -23586,7 +23778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="605" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>1595</v>
       </c>
@@ -23612,7 +23804,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="606" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>1597</v>
       </c>
@@ -23638,7 +23830,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="607" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>1599</v>
       </c>
@@ -23661,7 +23853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>1601</v>
       </c>
@@ -23684,7 +23876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>1603</v>
       </c>
@@ -23707,7 +23899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="610" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>1605</v>
       </c>
@@ -23733,7 +23925,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="611" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>1608</v>
       </c>
@@ -23756,7 +23948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="612" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>1610</v>
       </c>
@@ -23779,7 +23971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>1613</v>
       </c>
@@ -23805,7 +23997,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="614" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>1616</v>
       </c>
@@ -23831,7 +24023,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>1619</v>
       </c>
@@ -23858,7 +24050,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="616" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>1693</v>
       </c>
@@ -23884,7 +24076,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="617" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>1803</v>
       </c>
@@ -23906,12 +24098,14 @@
       <c r="G617" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="H617" s="18"/>
-      <c r="J617" s="20" t="s">
+      <c r="H617" s="21" t="s">
+        <v>2517</v>
+      </c>
+      <c r="J617" s="19" t="s">
         <v>2385</v>
       </c>
     </row>
-    <row r="618" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>1805</v>
       </c>
@@ -23937,7 +24131,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="619" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>1807</v>
       </c>
@@ -23963,7 +24157,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="620" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>1820</v>
       </c>
@@ -23989,7 +24183,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="621" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>1706</v>
       </c>
@@ -24016,7 +24210,7 @@
       </c>
       <c r="I621" s="6"/>
     </row>
-    <row r="622" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>1622</v>
       </c>
@@ -24042,7 +24236,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="623" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>1637</v>
       </c>
@@ -24068,7 +24262,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="624" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>1651</v>
       </c>
@@ -24094,7 +24288,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="625" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>1646</v>
       </c>
@@ -24120,7 +24314,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="626" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
         <v>1657</v>
       </c>
@@ -24143,7 +24337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="627" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>1661</v>
       </c>
@@ -24166,7 +24360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="628" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>1677</v>
       </c>
@@ -24189,7 +24383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>1681</v>
       </c>
@@ -24212,7 +24406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="630" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>1685</v>
       </c>
@@ -24238,11 +24432,11 @@
       <c r="I630" s="6" t="s">
         <v>2320</v>
       </c>
-      <c r="J630" s="20" t="s">
+      <c r="J630" s="19" t="s">
         <v>2255</v>
       </c>
     </row>
-    <row r="631" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
         <v>1691</v>
       </c>
@@ -24265,7 +24459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="632" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>1770</v>
       </c>
@@ -24287,7 +24481,9 @@
       <c r="G632" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H632" s="17"/>
+      <c r="H632" s="21" t="s">
+        <v>2518</v>
+      </c>
       <c r="I632" s="6" t="s">
         <v>2390</v>
       </c>
@@ -24295,7 +24491,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="633" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>1772</v>
       </c>
@@ -24317,7 +24513,9 @@
       <c r="G633" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H633" s="17"/>
+      <c r="H633" s="21" t="s">
+        <v>2519</v>
+      </c>
       <c r="I633" s="6" t="s">
         <v>2390</v>
       </c>
@@ -24325,7 +24523,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="634" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
         <v>1628</v>
       </c>
@@ -24351,7 +24549,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="635" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>1665</v>
       </c>
@@ -24377,7 +24575,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="636" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>1667</v>
       </c>
@@ -24403,7 +24601,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="637" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>1669</v>
       </c>
@@ -24429,7 +24627,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="638" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>1671</v>
       </c>
@@ -24455,7 +24653,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="639" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>1673</v>
       </c>
@@ -24481,7 +24679,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="640" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>1675</v>
       </c>
@@ -24507,7 +24705,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>1792</v>
       </c>
@@ -24530,7 +24728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>1717</v>
       </c>
@@ -24556,7 +24754,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
         <v>1631</v>
       </c>
@@ -24582,7 +24780,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>1634</v>
       </c>
@@ -24608,7 +24806,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>1659</v>
       </c>
@@ -24631,7 +24829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>1663</v>
       </c>
@@ -24654,7 +24852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>1679</v>
       </c>
@@ -24677,7 +24875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>1683</v>
       </c>
@@ -24700,7 +24898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>1687</v>
       </c>
@@ -24723,7 +24921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="650" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>1689</v>
       </c>
@@ -24746,7 +24944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>1831</v>
       </c>
@@ -24769,7 +24967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
         <v>1695</v>
       </c>
@@ -24792,7 +24990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
         <v>1715</v>
       </c>
@@ -24818,7 +25016,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>1698</v>
       </c>
@@ -24844,7 +25042,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
         <v>1843</v>
       </c>
@@ -24870,7 +25068,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>1648</v>
       </c>
@@ -24892,9 +25090,11 @@
       <c r="G656" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H656" s="17"/>
-    </row>
-    <row r="657" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H656" s="21" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
         <v>1701</v>
       </c>
@@ -24920,7 +25120,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
         <v>1708</v>
       </c>
@@ -24946,7 +25146,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="659" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
         <v>1704</v>
       </c>
@@ -24972,7 +25172,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="660" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
         <v>1774</v>
       </c>
@@ -24998,7 +25198,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="661" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
         <v>1742</v>
       </c>
@@ -25021,7 +25221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="662" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
         <v>1723</v>
       </c>
@@ -25045,7 +25245,7 @@
       </c>
       <c r="H662" s="17"/>
     </row>
-    <row r="663" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
         <v>1776</v>
       </c>
@@ -25071,7 +25271,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="664" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
         <v>1726</v>
       </c>
@@ -25097,7 +25297,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="665" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
         <v>1729</v>
       </c>
@@ -25123,7 +25323,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="666" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
         <v>1731</v>
       </c>
@@ -25149,7 +25349,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="667" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
         <v>1733</v>
       </c>
@@ -25175,7 +25375,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="668" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>1735</v>
       </c>
@@ -25201,7 +25401,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="669" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
         <v>1737</v>
       </c>
@@ -25231,7 +25431,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="670" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
         <v>1745</v>
       </c>
@@ -25257,7 +25457,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="671" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
         <v>1814</v>
       </c>
@@ -25283,7 +25483,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="672" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
         <v>1747</v>
       </c>
@@ -25309,7 +25509,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="673" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
         <v>1643</v>
       </c>
@@ -25335,7 +25535,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="674" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
         <v>1749</v>
       </c>
@@ -25361,7 +25561,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="675" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
         <v>1764</v>
       </c>
@@ -25384,7 +25584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="676" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>1767</v>
       </c>
@@ -25410,7 +25610,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="677" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
         <v>1720</v>
       </c>
@@ -25436,7 +25636,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="678" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
         <v>1795</v>
       </c>
@@ -25462,7 +25662,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="679" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
         <v>1784</v>
       </c>
@@ -25485,7 +25685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="680" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
         <v>1797</v>
       </c>
@@ -25511,7 +25711,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="681" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
         <v>1800</v>
       </c>
@@ -25537,7 +25737,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="682" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
         <v>1809</v>
       </c>
@@ -25563,7 +25763,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="683" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
         <v>1834</v>
       </c>
@@ -25586,7 +25786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="684" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
         <v>1812</v>
       </c>
@@ -25612,7 +25812,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="685" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
         <v>1752</v>
       </c>
@@ -25638,7 +25838,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="686" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
         <v>1825</v>
       </c>
@@ -25661,7 +25861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="687" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
         <v>1817</v>
       </c>
@@ -25687,7 +25887,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="688" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
         <v>1828</v>
       </c>
@@ -25710,7 +25910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="689" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
         <v>1654</v>
       </c>
@@ -25737,7 +25937,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="690" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
         <v>1758</v>
       </c>
@@ -25761,7 +25961,7 @@
       </c>
       <c r="H690" s="17"/>
     </row>
-    <row r="691" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
         <v>1760</v>
       </c>
@@ -25785,7 +25985,7 @@
       </c>
       <c r="H691" s="17"/>
     </row>
-    <row r="692" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
         <v>1762</v>
       </c>
@@ -25809,7 +26009,7 @@
       </c>
       <c r="H692" s="17"/>
     </row>
-    <row r="693" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
         <v>1778</v>
       </c>
@@ -25831,9 +26031,11 @@
       <c r="G693" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H693" s="17"/>
-    </row>
-    <row r="694" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H693" s="21" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
         <v>1780</v>
       </c>
@@ -25855,9 +26057,11 @@
       <c r="G694" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H694" s="17"/>
-    </row>
-    <row r="695" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H694" s="21" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
         <v>1755</v>
       </c>
@@ -25883,7 +26087,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="696" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
         <v>1837</v>
       </c>
@@ -25909,7 +26113,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="697" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
         <v>1840</v>
       </c>
@@ -25933,7 +26137,7 @@
       </c>
       <c r="H697" s="17"/>
     </row>
-    <row r="698" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
         <v>1852</v>
       </c>
@@ -25959,7 +26163,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="699" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
         <v>1710</v>
       </c>
@@ -25985,7 +26189,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="700" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
         <v>1640</v>
       </c>
@@ -26011,7 +26215,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="701" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
         <v>1786</v>
       </c>
@@ -26037,7 +26241,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="702" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
         <v>1846</v>
       </c>
@@ -26063,7 +26267,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="703" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
         <v>1849</v>
       </c>
@@ -26089,7 +26293,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="704" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
         <v>1855</v>
       </c>
@@ -26115,7 +26319,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="705" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
         <v>1625</v>
       </c>
@@ -26141,7 +26345,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="706" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
         <v>1712</v>
       </c>
@@ -26164,7 +26368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="707" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
         <v>1739</v>
       </c>
@@ -26186,9 +26390,9 @@
       <c r="G707" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H707" s="19"/>
-    </row>
-    <row r="708" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H707" s="18"/>
+    </row>
+    <row r="708" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
         <v>1789</v>
       </c>
@@ -26210,9 +26414,9 @@
       <c r="G708" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H708" s="19"/>
-    </row>
-    <row r="709" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H708" s="18"/>
+    </row>
+    <row r="709" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
         <v>1822</v>
       </c>
@@ -26235,7 +26439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="710" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
         <v>1857</v>
       </c>
@@ -26261,7 +26465,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="711" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
         <v>1859</v>
       </c>
@@ -26287,7 +26491,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="712" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
         <v>1861</v>
       </c>
@@ -26313,7 +26517,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="713" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>1863</v>
       </c>
@@ -26339,7 +26543,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="714" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>1865</v>
       </c>
@@ -26369,7 +26573,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="715" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
         <v>1867</v>
       </c>
@@ -26395,7 +26599,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="716" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
         <v>1782</v>
       </c>
@@ -26417,9 +26621,11 @@
       <c r="G716" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H716" s="17"/>
-    </row>
-    <row r="717" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H716" s="21" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="717" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
         <v>1870</v>
       </c>
@@ -26445,7 +26651,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="718" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
         <v>1873</v>
       </c>
@@ -26471,7 +26677,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="719" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
         <v>1876</v>
       </c>
@@ -26497,7 +26703,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="720" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
         <v>1879</v>
       </c>
@@ -26523,7 +26729,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="721" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
         <v>1882</v>
       </c>
@@ -26549,7 +26755,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="722" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
         <v>1885</v>
       </c>
@@ -26575,7 +26781,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="723" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
         <v>1888</v>
       </c>
@@ -26601,7 +26807,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="724" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
         <v>1891</v>
       </c>
@@ -26627,7 +26833,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
         <v>1894</v>
       </c>
@@ -26653,7 +26859,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
         <v>1896</v>
       </c>
@@ -26679,7 +26885,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="727" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
         <v>1898</v>
       </c>
@@ -26705,7 +26911,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="728" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
         <v>1901</v>
       </c>
@@ -26731,7 +26937,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
         <v>1904</v>
       </c>
@@ -26757,7 +26963,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="730" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
         <v>1906</v>
       </c>
@@ -26783,7 +26989,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="731" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
         <v>1908</v>
       </c>
@@ -26809,7 +27015,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="732" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
         <v>1911</v>
       </c>
@@ -26835,7 +27041,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="733" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
         <v>1914</v>
       </c>
@@ -26861,7 +27067,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="734" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
         <v>1917</v>
       </c>
@@ -26887,7 +27093,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="735" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
         <v>1920</v>
       </c>
@@ -26913,7 +27119,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="736" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
         <v>1923</v>
       </c>
@@ -26939,7 +27145,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="737" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
         <v>1926</v>
       </c>
@@ -26965,7 +27171,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="738" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
         <v>1929</v>
       </c>
@@ -26991,7 +27197,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="739" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
         <v>1932</v>
       </c>
@@ -27017,7 +27223,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="740" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
         <v>1935</v>
       </c>
@@ -27043,7 +27249,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="741" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
         <v>1938</v>
       </c>
@@ -27069,7 +27275,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="742" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
         <v>1941</v>
       </c>
@@ -27095,7 +27301,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="743" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
         <v>1944</v>
       </c>
@@ -27121,7 +27327,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="744" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
         <v>1947</v>
       </c>
@@ -27147,7 +27353,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="745" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
         <v>1950</v>
       </c>
@@ -27173,7 +27379,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="746" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
         <v>1953</v>
       </c>
@@ -27199,7 +27405,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="747" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
         <v>1955</v>
       </c>
@@ -27225,7 +27431,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="748" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
         <v>1958</v>
       </c>
@@ -27251,7 +27457,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="749" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
         <v>1960</v>
       </c>
@@ -27275,7 +27481,7 @@
       </c>
       <c r="H749" s="7"/>
     </row>
-    <row r="750" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
         <v>1963</v>
       </c>
@@ -27301,7 +27507,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="751" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
         <v>1965</v>
       </c>
@@ -27327,7 +27533,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="752" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
         <v>1968</v>
       </c>
@@ -27353,7 +27559,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="753" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
         <v>1970</v>
       </c>
@@ -27379,7 +27585,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="754" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
         <v>1973</v>
       </c>
@@ -27405,7 +27611,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="755" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
         <v>1976</v>
       </c>
@@ -27431,7 +27637,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="756" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
         <v>1978</v>
       </c>
@@ -27457,7 +27663,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="757" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
         <v>1980</v>
       </c>
@@ -27483,7 +27689,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="758" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
         <v>1983</v>
       </c>
@@ -27509,7 +27715,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="759" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
         <v>1985</v>
       </c>
@@ -27535,7 +27741,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="760" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
         <v>1988</v>
       </c>
@@ -27561,7 +27767,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="761" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
         <v>1991</v>
       </c>
@@ -27587,7 +27793,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="762" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
         <v>1994</v>
       </c>
@@ -27613,7 +27819,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="763" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
         <v>1997</v>
       </c>
@@ -27637,7 +27843,7 @@
       </c>
       <c r="H763" s="17"/>
     </row>
-    <row r="764" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
         <v>2000</v>
       </c>
@@ -27663,7 +27869,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="765" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
         <v>2003</v>
       </c>
@@ -27689,7 +27895,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="766" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
         <v>2006</v>
       </c>
@@ -27715,7 +27921,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="767" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
         <v>2009</v>
       </c>
@@ -27741,7 +27947,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="768" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
         <v>2011</v>
       </c>
@@ -27767,7 +27973,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="769" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
         <v>2014</v>
       </c>
@@ -27793,7 +27999,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="770" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
         <v>2017</v>
       </c>
@@ -27819,7 +28025,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="771" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
         <v>2019</v>
       </c>
@@ -27845,7 +28051,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="772" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
         <v>2022</v>
       </c>
@@ -27871,7 +28077,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="773" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
         <v>2025</v>
       </c>
@@ -27897,7 +28103,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="774" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
         <v>2028</v>
       </c>
@@ -27922,11 +28128,11 @@
       <c r="H774" s="6" t="s">
         <v>2380</v>
       </c>
-      <c r="J774" s="20" t="s">
+      <c r="J774" s="19" t="s">
         <v>2381</v>
       </c>
     </row>
-    <row r="775" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
         <v>2031</v>
       </c>
@@ -27948,9 +28154,12 @@
       <c r="G775" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H775" s="17"/>
-    </row>
-    <row r="776" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H775" s="15"/>
+      <c r="J775" s="25" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="776" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
         <v>2033</v>
       </c>
@@ -27978,6 +28187,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I776">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
     <sortState ref="A616:I716">
       <sortCondition ref="E1:E776"/>
     </sortState>

--- a/source-code/scratch/owin/mmrds-importer/mapping-file-set/system-of-record-mapping-no-grid.xlsx
+++ b/source-code/scratch/owin/mmrds-importer/mapping-file-set/system-of-record-mapping-no-grid.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6113" uniqueCount="2530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6166" uniqueCount="2583">
   <si>
     <t>Path</t>
   </si>
@@ -7634,12 +7634,171 @@
   </si>
   <si>
     <t>we chose not to map this in MMRIA.  The unit is now captured in a string field</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/prenatal_care/date_of_last_prenatal_visit/year</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/prenatal_care/date_of_last_prenatal_visit/month</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/prenatal_care/date_of_last_prenatal_visit/day</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/prenatal_care/date_of_last_prenatal_visit/is_estimated</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/pregnancy_history/date_of_last_other_outcome/is_estimated</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/pregnancy_history/date_of_last_live_birth/is_estimated</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/prenatal_care/date_of_last_normal_menses/is_estimated</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/demographic_of_father/date_of_birth/is_estimated</t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/demographic_of_father/race/omb_race_recode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth_fetal_death_certificate_parent/race/omb_race_recode </t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/maternal_biometrics/height_feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth_fetal_death_certificate_parent/maternal_biometrics/height_inches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth_fetal_death_certificate_parent/prenatal_care/date_of_1st_prenatal_visit/is_estimated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth_certificate_infant_fetal_section/is_multiple_gestation </t>
+  </si>
+  <si>
+    <t>birth_fetal_death_certificate_parent/demographic_of_father/date_of_birth/month</t>
+  </si>
+  <si>
+    <t>/birth_fetal_death_certificate_parent/facility_of_delivery_demographics/date_of_delivery/is_estimated</t>
+  </si>
+  <si>
+    <t>birth_certificate_infant_fetal_section/record_identification/date_of_delivery_is_estimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth_certificate_infant_fetal_section/biometrics_and_demographics/birth_weight/value_unit </t>
+  </si>
+  <si>
+    <t>home_record/date_of_death/is_estimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death_certificate/race/omb_race_recode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">death_certificate/injury_associated_information/date_of_injury/is_estimated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">death_certificate/demographics/date_of_birth/is_estimated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">autopsy_report/reporter_characteristics/date_of_autopsy/is_estimated </t>
+  </si>
+  <si>
+    <t>prenatal/intendedenes/date_birth_control_was_discontinued/year</t>
+  </si>
+  <si>
+    <t>intendedenes/date_birth_control_was_discontinued/month</t>
+  </si>
+  <si>
+    <t>prenatal/primary_prenatal_care_facility/specify_other_provider_type</t>
+  </si>
+  <si>
+    <t>prenatal/primary_prenatal_care_facility/other_place_type</t>
+  </si>
+  <si>
+    <t>prenatal/infertility_treatment/specify_other_art_type</t>
+  </si>
+  <si>
+    <t>prenatal/current_pregnancy/estimated_date_of_confinement/is_estimated</t>
+  </si>
+  <si>
+    <t>prenatal/intendedenes/date_birth_control_was_discontinued/is_estimated</t>
+  </si>
+  <si>
+    <t>prenatal/current_pregnancy/date_of_last_prenatal_visit/is_estimated</t>
+  </si>
+  <si>
+    <t>prenatal/current_pregnancy/date_of_last_normal_menses/is_estimated</t>
+  </si>
+  <si>
+    <t>prenatal/current_pregnancy/date_of_1st_ultrasound/is_estimated</t>
+  </si>
+  <si>
+    <t>prenatal/current_pregnancy/date_of_1st_prenatal_visit/is_estimated</t>
+  </si>
+  <si>
+    <t>current_pregnancy/estimated_date_of_confinement/estimate_based_on_lmp</t>
+  </si>
+  <si>
+    <t>current_pregnancy/estimated_date_of_confinement/estimate_based_on_ultrasound</t>
+  </si>
+  <si>
+    <t>home_record/specify_other_multiple_sources</t>
+  </si>
+  <si>
+    <t>social_and_environmental_profile/health_care_system/specify_other_reason</t>
+  </si>
+  <si>
+    <t>social_and_environmental_profile/social_or_emotional_stress/specify_other_evidence_stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">informant_interviews/date_of_interview/month </t>
+  </si>
+  <si>
+    <t xml:space="preserve">informant_interviews/date_of_interview/year </t>
+  </si>
+  <si>
+    <t>informant_interviews/date_of_interview/day</t>
+  </si>
+  <si>
+    <t>er_visit_and_hospital_medical_records/basic_admission_and_discharge_information/date_of_hospital_discharge/is_estimated</t>
+  </si>
+  <si>
+    <t>er_visit_and_hospital_medical_records/basic_admission_and_discharge_information/date_of_hospital_admission/is_estimated</t>
+  </si>
+  <si>
+    <t>er_visit_and_hospital_medical_records/onset_of_labor/date_of_onset_of_labor/is_estimated</t>
+  </si>
+  <si>
+    <t>er_visit_and_hospital_medical_records/onset_of_labor/date_of_rupture/is_estimated</t>
+  </si>
+  <si>
+    <t>er_visit_and_hospital_medical_records/basic_admission_and_discharge_information/date_of_arrival/is_estimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">er_visit_and_hospital_medical_records/basic_admission_and_discharge_information/time_of_arrival </t>
+  </si>
+  <si>
+    <t>other_medical_office_visits/visit/date_of_medical_office_visit/month</t>
+  </si>
+  <si>
+    <t>other_medical_office_visits/visit/date_of_medical_office_visit/day</t>
+  </si>
+  <si>
+    <t>other_medical_office_visits/visit/date_of_medical_office_visit/year</t>
+  </si>
+  <si>
+    <t>other_medical_office_visits/medical_care_facility/specify_other_place_type</t>
+  </si>
+  <si>
+    <t>other_medical_office_visits/medical_care_facility/specify_other_provider_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7977,23 +8136,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8029,23 +8171,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8222,26 +8347,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A714" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I776" sqref="I776"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I594" sqref="I594"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="39.7109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="38.7109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="39.6640625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="38.6640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8273,7 +8397,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -8302,7 +8426,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -8328,7 +8452,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -8354,7 +8478,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -8381,7 +8505,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -8403,12 +8527,14 @@
       <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="24" t="s">
+        <v>2552</v>
+      </c>
       <c r="I6" s="6" t="s">
         <v>2086</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -8435,7 +8561,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -8461,7 +8587,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -8487,7 +8613,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -8513,7 +8639,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -8536,7 +8662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -8562,7 +8688,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -8588,7 +8714,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -8614,7 +8740,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
@@ -8640,7 +8766,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
@@ -8667,7 +8793,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -8690,7 +8816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
@@ -8716,7 +8842,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
@@ -8742,7 +8868,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -8768,7 +8894,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -8794,7 +8920,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
@@ -8817,7 +8943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -8843,7 +8969,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -8869,7 +8995,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>89</v>
       </c>
@@ -8896,7 +9022,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -8922,7 +9048,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
@@ -8948,7 +9074,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
@@ -8974,7 +9100,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
@@ -9000,7 +9126,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>105</v>
       </c>
@@ -9026,7 +9152,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>108</v>
       </c>
@@ -9052,7 +9178,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>111</v>
       </c>
@@ -9078,7 +9204,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>114</v>
       </c>
@@ -9100,8 +9226,11 @@
       <c r="G33" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="24" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>116</v>
       </c>
@@ -9127,7 +9256,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>119</v>
       </c>
@@ -9153,7 +9282,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>122</v>
       </c>
@@ -9179,7 +9308,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>125</v>
       </c>
@@ -9205,7 +9334,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>128</v>
       </c>
@@ -9231,7 +9360,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>131</v>
       </c>
@@ -9257,7 +9386,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>134</v>
       </c>
@@ -9279,11 +9408,14 @@
       <c r="G40" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="H40" s="24" t="s">
+        <v>2547</v>
+      </c>
       <c r="I40" s="6" t="s">
         <v>2112</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
@@ -9309,7 +9441,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>140</v>
       </c>
@@ -9331,11 +9463,14 @@
       <c r="G42" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H42" s="24" t="s">
+        <v>2547</v>
+      </c>
       <c r="I42" s="6" t="s">
         <v>2112</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>143</v>
       </c>
@@ -9357,11 +9492,14 @@
       <c r="G43" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="H43" s="24" t="s">
+        <v>2547</v>
+      </c>
       <c r="I43" s="6" t="s">
         <v>2112</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>146</v>
       </c>
@@ -9387,7 +9525,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>149</v>
       </c>
@@ -9413,7 +9551,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>152</v>
       </c>
@@ -9439,7 +9577,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>155</v>
       </c>
@@ -9465,7 +9603,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>158</v>
       </c>
@@ -9491,7 +9629,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>161</v>
       </c>
@@ -9514,7 +9652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>164</v>
       </c>
@@ -9540,7 +9678,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>167</v>
       </c>
@@ -9566,7 +9704,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>170</v>
       </c>
@@ -9592,7 +9730,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>173</v>
       </c>
@@ -9618,7 +9756,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>176</v>
       </c>
@@ -9644,7 +9782,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>179</v>
       </c>
@@ -9670,7 +9808,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>181</v>
       </c>
@@ -9696,7 +9834,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>183</v>
       </c>
@@ -9722,7 +9860,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>186</v>
       </c>
@@ -9748,7 +9886,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>189</v>
       </c>
@@ -9774,7 +9912,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>192</v>
       </c>
@@ -9800,7 +9938,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>195</v>
       </c>
@@ -9826,7 +9964,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>198</v>
       </c>
@@ -9852,7 +9990,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>201</v>
       </c>
@@ -9878,7 +10016,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>204</v>
       </c>
@@ -9904,7 +10042,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>207</v>
       </c>
@@ -9930,7 +10068,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>210</v>
       </c>
@@ -9956,7 +10094,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>213</v>
       </c>
@@ -9978,8 +10116,11 @@
       <c r="G67" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H67" s="24" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>216</v>
       </c>
@@ -10001,8 +10142,9 @@
       <c r="G68" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>219</v>
       </c>
@@ -10028,7 +10170,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>222</v>
       </c>
@@ -10054,7 +10196,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>225</v>
       </c>
@@ -10080,7 +10222,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>227</v>
       </c>
@@ -10106,7 +10248,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>230</v>
       </c>
@@ -10132,7 +10274,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>233</v>
       </c>
@@ -10155,7 +10297,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>236</v>
       </c>
@@ -10181,7 +10323,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>239</v>
       </c>
@@ -10207,7 +10349,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>242</v>
       </c>
@@ -10233,7 +10375,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>245</v>
       </c>
@@ -10259,7 +10401,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>248</v>
       </c>
@@ -10285,7 +10427,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>251</v>
       </c>
@@ -10311,7 +10453,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>254</v>
       </c>
@@ -10337,7 +10479,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>257</v>
       </c>
@@ -10363,7 +10505,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>260</v>
       </c>
@@ -10389,7 +10531,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>264</v>
       </c>
@@ -10415,7 +10557,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>267</v>
       </c>
@@ -10441,7 +10583,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>270</v>
       </c>
@@ -10467,7 +10609,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>273</v>
       </c>
@@ -10493,7 +10635,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>276</v>
       </c>
@@ -10519,7 +10661,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>280</v>
       </c>
@@ -10542,7 +10684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>283</v>
       </c>
@@ -10565,7 +10707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>286</v>
       </c>
@@ -10591,7 +10733,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>289</v>
       </c>
@@ -10617,7 +10759,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>292</v>
       </c>
@@ -10640,7 +10782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>295</v>
       </c>
@@ -10666,7 +10808,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>298</v>
       </c>
@@ -10692,7 +10834,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>301</v>
       </c>
@@ -10718,7 +10860,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>304</v>
       </c>
@@ -10744,7 +10886,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>306</v>
       </c>
@@ -10770,7 +10912,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>309</v>
       </c>
@@ -10792,12 +10934,14 @@
       <c r="G99" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H99" s="17"/>
+      <c r="H99" s="24" t="s">
+        <v>2566</v>
+      </c>
       <c r="J99" s="14" t="s">
         <v>2422</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>312</v>
       </c>
@@ -10823,7 +10967,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>315</v>
       </c>
@@ -10849,7 +10993,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>318</v>
       </c>
@@ -10875,7 +11019,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>321</v>
       </c>
@@ -10901,7 +11045,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>323</v>
       </c>
@@ -10927,7 +11071,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>339</v>
       </c>
@@ -10953,7 +11097,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>343</v>
       </c>
@@ -10979,7 +11123,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>346</v>
       </c>
@@ -11005,7 +11149,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>349</v>
       </c>
@@ -11031,7 +11175,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>352</v>
       </c>
@@ -11057,7 +11201,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>355</v>
       </c>
@@ -11083,7 +11227,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>358</v>
       </c>
@@ -11109,7 +11253,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>361</v>
       </c>
@@ -11135,7 +11279,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>364</v>
       </c>
@@ -11161,7 +11305,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>367</v>
       </c>
@@ -11187,7 +11331,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>370</v>
       </c>
@@ -11213,7 +11357,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>373</v>
       </c>
@@ -11239,7 +11383,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>375</v>
       </c>
@@ -11265,7 +11409,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>377</v>
       </c>
@@ -11288,7 +11432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>379</v>
       </c>
@@ -11310,8 +11454,11 @@
       <c r="G119" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H119" s="24" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>381</v>
       </c>
@@ -11337,7 +11484,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>384</v>
       </c>
@@ -11360,7 +11507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>386</v>
       </c>
@@ -11382,8 +11529,11 @@
       <c r="G122" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H122" s="24" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>388</v>
       </c>
@@ -11409,7 +11559,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>391</v>
       </c>
@@ -11435,7 +11585,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>394</v>
       </c>
@@ -11461,7 +11611,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>397</v>
       </c>
@@ -11487,7 +11637,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>400</v>
       </c>
@@ -11513,7 +11663,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>403</v>
       </c>
@@ -11537,7 +11687,7 @@
       </c>
       <c r="H128" s="22"/>
     </row>
-    <row r="129" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>405</v>
       </c>
@@ -11563,7 +11713,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>408</v>
       </c>
@@ -11589,7 +11739,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>411</v>
       </c>
@@ -11615,7 +11765,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>413</v>
       </c>
@@ -11641,7 +11791,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>415</v>
       </c>
@@ -11667,7 +11817,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>418</v>
       </c>
@@ -11693,7 +11843,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>420</v>
       </c>
@@ -11719,7 +11869,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>422</v>
       </c>
@@ -11745,7 +11895,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>425</v>
       </c>
@@ -11771,7 +11921,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>428</v>
       </c>
@@ -11797,7 +11947,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>431</v>
       </c>
@@ -11823,7 +11973,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>434</v>
       </c>
@@ -11849,7 +11999,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>437</v>
       </c>
@@ -11875,7 +12025,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>440</v>
       </c>
@@ -11901,7 +12051,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>443</v>
       </c>
@@ -11927,7 +12077,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>446</v>
       </c>
@@ -11953,7 +12103,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>449</v>
       </c>
@@ -11979,7 +12129,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>452</v>
       </c>
@@ -12005,7 +12155,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>455</v>
       </c>
@@ -12031,7 +12181,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>458</v>
       </c>
@@ -12057,7 +12207,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>461</v>
       </c>
@@ -12083,7 +12233,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>463</v>
       </c>
@@ -12110,7 +12260,7 @@
       </c>
       <c r="J150" s="6"/>
     </row>
-    <row r="151" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>465</v>
       </c>
@@ -12136,7 +12286,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>468</v>
       </c>
@@ -12159,7 +12309,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>470</v>
       </c>
@@ -12185,7 +12335,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>473</v>
       </c>
@@ -12211,7 +12361,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>476</v>
       </c>
@@ -12237,7 +12387,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>479</v>
       </c>
@@ -12263,7 +12413,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>482</v>
       </c>
@@ -12289,7 +12439,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>485</v>
       </c>
@@ -12315,7 +12465,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>488</v>
       </c>
@@ -12341,7 +12491,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>490</v>
       </c>
@@ -12367,7 +12517,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>493</v>
       </c>
@@ -12393,7 +12543,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>496</v>
       </c>
@@ -12419,7 +12569,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>499</v>
       </c>
@@ -12445,7 +12595,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>502</v>
       </c>
@@ -12474,7 +12624,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>504</v>
       </c>
@@ -12500,7 +12650,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>507</v>
       </c>
@@ -12526,7 +12676,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>510</v>
       </c>
@@ -12552,7 +12702,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>513</v>
       </c>
@@ -12578,7 +12728,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>516</v>
       </c>
@@ -12600,8 +12750,11 @@
       <c r="G169" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H169" s="24" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>519</v>
       </c>
@@ -12627,7 +12780,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>522</v>
       </c>
@@ -12650,7 +12803,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>524</v>
       </c>
@@ -12676,7 +12829,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>527</v>
       </c>
@@ -12702,7 +12855,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>529</v>
       </c>
@@ -12728,7 +12881,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>531</v>
       </c>
@@ -12754,7 +12907,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>533</v>
       </c>
@@ -12780,7 +12933,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>535</v>
       </c>
@@ -12806,7 +12959,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>537</v>
       </c>
@@ -12832,7 +12985,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>539</v>
       </c>
@@ -12858,7 +13011,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>541</v>
       </c>
@@ -12884,7 +13037,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>544</v>
       </c>
@@ -12910,7 +13063,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>547</v>
       </c>
@@ -12936,7 +13089,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>551</v>
       </c>
@@ -12962,7 +13115,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>554</v>
       </c>
@@ -12988,7 +13141,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>556</v>
       </c>
@@ -13014,7 +13167,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>559</v>
       </c>
@@ -13040,7 +13193,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>562</v>
       </c>
@@ -13066,7 +13219,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>565</v>
       </c>
@@ -13092,7 +13245,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>568</v>
       </c>
@@ -13118,7 +13271,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>571</v>
       </c>
@@ -13144,7 +13297,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>573</v>
       </c>
@@ -13171,7 +13324,7 @@
       </c>
       <c r="J191" s="6"/>
     </row>
-    <row r="192" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>575</v>
       </c>
@@ -13197,7 +13350,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>579</v>
       </c>
@@ -13223,7 +13376,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>582</v>
       </c>
@@ -13249,7 +13402,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>585</v>
       </c>
@@ -13275,7 +13428,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>588</v>
       </c>
@@ -13298,7 +13451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>591</v>
       </c>
@@ -13324,7 +13477,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>594</v>
       </c>
@@ -13347,7 +13500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>597</v>
       </c>
@@ -13371,7 +13524,7 @@
       </c>
       <c r="H199" s="6"/>
     </row>
-    <row r="200" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>600</v>
       </c>
@@ -13397,7 +13550,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>603</v>
       </c>
@@ -13423,7 +13576,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>606</v>
       </c>
@@ -13449,7 +13602,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>608</v>
       </c>
@@ -13475,7 +13628,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>610</v>
       </c>
@@ -13498,7 +13651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>612</v>
       </c>
@@ -13520,8 +13673,11 @@
       <c r="G205" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H205" s="24" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>614</v>
       </c>
@@ -13547,7 +13703,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>616</v>
       </c>
@@ -13573,7 +13729,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>618</v>
       </c>
@@ -13599,7 +13755,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>621</v>
       </c>
@@ -13625,7 +13781,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>624</v>
       </c>
@@ -13651,7 +13807,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>627</v>
       </c>
@@ -13677,7 +13833,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>629</v>
       </c>
@@ -13700,7 +13856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>631</v>
       </c>
@@ -13722,8 +13878,11 @@
       <c r="G213" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H213" s="24" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>633</v>
       </c>
@@ -13746,7 +13905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>635</v>
       </c>
@@ -13768,8 +13927,11 @@
       <c r="G215" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H215" s="24" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>637</v>
       </c>
@@ -13792,7 +13954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>639</v>
       </c>
@@ -13814,8 +13976,11 @@
       <c r="G217" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H217" s="24" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>641</v>
       </c>
@@ -13841,7 +14006,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>644</v>
       </c>
@@ -13864,7 +14029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>646</v>
       </c>
@@ -13886,8 +14051,11 @@
       <c r="G220" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H220" s="24" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>648</v>
       </c>
@@ -13909,8 +14077,11 @@
       <c r="G221" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H221" s="24" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>651</v>
       </c>
@@ -13936,7 +14107,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>654</v>
       </c>
@@ -13962,7 +14133,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>657</v>
       </c>
@@ -13988,7 +14159,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>660</v>
       </c>
@@ -14014,7 +14185,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>662</v>
       </c>
@@ -14040,7 +14211,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>665</v>
       </c>
@@ -14066,7 +14237,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>667</v>
       </c>
@@ -14092,7 +14263,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>669</v>
       </c>
@@ -14115,7 +14286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>672</v>
       </c>
@@ -14138,7 +14309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>675</v>
       </c>
@@ -14164,7 +14335,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>678</v>
       </c>
@@ -14190,7 +14361,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>680</v>
       </c>
@@ -14216,7 +14387,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>682</v>
       </c>
@@ -14242,7 +14413,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>684</v>
       </c>
@@ -14268,7 +14439,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>686</v>
       </c>
@@ -14291,7 +14462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>689</v>
       </c>
@@ -14317,7 +14488,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>691</v>
       </c>
@@ -14340,7 +14511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>694</v>
       </c>
@@ -14366,7 +14537,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>696</v>
       </c>
@@ -14392,7 +14563,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>698</v>
       </c>
@@ -14418,7 +14589,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>700</v>
       </c>
@@ -14444,7 +14615,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>703</v>
       </c>
@@ -14470,7 +14641,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>706</v>
       </c>
@@ -14496,7 +14667,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>709</v>
       </c>
@@ -14522,7 +14693,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>712</v>
       </c>
@@ -14548,7 +14719,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>714</v>
       </c>
@@ -14574,7 +14745,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>717</v>
       </c>
@@ -14600,7 +14771,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>2067</v>
       </c>
@@ -14626,7 +14797,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>720</v>
       </c>
@@ -14652,7 +14823,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>723</v>
       </c>
@@ -14678,7 +14849,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>726</v>
       </c>
@@ -14704,7 +14875,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>729</v>
       </c>
@@ -14727,7 +14898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>732</v>
       </c>
@@ -14750,7 +14921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>735</v>
       </c>
@@ -14776,7 +14947,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>738</v>
       </c>
@@ -14802,7 +14973,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>741</v>
       </c>
@@ -14828,7 +14999,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>743</v>
       </c>
@@ -14854,7 +15025,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>745</v>
       </c>
@@ -14880,7 +15051,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>748</v>
       </c>
@@ -14906,7 +15077,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>750</v>
       </c>
@@ -14932,7 +15103,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>752</v>
       </c>
@@ -14958,7 +15129,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>754</v>
       </c>
@@ -14984,7 +15155,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>756</v>
       </c>
@@ -15010,7 +15181,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>758</v>
       </c>
@@ -15033,7 +15204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>761</v>
       </c>
@@ -15059,7 +15230,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>764</v>
       </c>
@@ -15085,7 +15256,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>767</v>
       </c>
@@ -15108,7 +15279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>770</v>
       </c>
@@ -15134,7 +15305,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>772</v>
       </c>
@@ -15160,7 +15331,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>775</v>
       </c>
@@ -15186,7 +15357,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>778</v>
       </c>
@@ -15209,7 +15380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>781</v>
       </c>
@@ -15235,7 +15406,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>783</v>
       </c>
@@ -15261,7 +15432,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>786</v>
       </c>
@@ -15287,7 +15458,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>789</v>
       </c>
@@ -15313,7 +15484,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>792</v>
       </c>
@@ -15339,7 +15510,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>795</v>
       </c>
@@ -15365,7 +15536,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>798</v>
       </c>
@@ -15391,7 +15562,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>800</v>
       </c>
@@ -15417,7 +15588,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>803</v>
       </c>
@@ -15440,7 +15611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>806</v>
       </c>
@@ -15466,7 +15637,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>808</v>
       </c>
@@ -15492,7 +15663,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>810</v>
       </c>
@@ -15518,7 +15689,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>812</v>
       </c>
@@ -15544,7 +15715,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>814</v>
       </c>
@@ -15570,7 +15741,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>816</v>
       </c>
@@ -15596,7 +15767,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>819</v>
       </c>
@@ -15618,7 +15789,9 @@
       <c r="G288" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H288" s="17"/>
+      <c r="H288" s="24" t="s">
+        <v>2571</v>
+      </c>
       <c r="I288" s="6" t="s">
         <v>2287</v>
       </c>
@@ -15626,7 +15799,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>821</v>
       </c>
@@ -15649,7 +15822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>823</v>
       </c>
@@ -15672,7 +15845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>825</v>
       </c>
@@ -15698,7 +15871,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>828</v>
       </c>
@@ -15724,7 +15897,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>831</v>
       </c>
@@ -15750,7 +15923,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>834</v>
       </c>
@@ -15776,7 +15949,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>837</v>
       </c>
@@ -15802,7 +15975,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>840</v>
       </c>
@@ -15828,7 +16001,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>843</v>
       </c>
@@ -15850,7 +16023,9 @@
       <c r="G297" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H297" s="17"/>
+      <c r="H297" s="24" t="s">
+        <v>2569</v>
+      </c>
       <c r="I297" s="6" t="s">
         <v>2287</v>
       </c>
@@ -15858,7 +16033,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>845</v>
       </c>
@@ -15884,7 +16059,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>847</v>
       </c>
@@ -15910,7 +16085,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>850</v>
       </c>
@@ -15936,7 +16111,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>853</v>
       </c>
@@ -15962,7 +16137,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>855</v>
       </c>
@@ -15988,7 +16163,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>857</v>
       </c>
@@ -16014,7 +16189,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>860</v>
       </c>
@@ -16036,7 +16211,9 @@
       <c r="G304" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H304" s="17"/>
+      <c r="H304" s="24" t="s">
+        <v>2570</v>
+      </c>
       <c r="I304" s="6" t="s">
         <v>2287</v>
       </c>
@@ -16044,7 +16221,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>862</v>
       </c>
@@ -16070,7 +16247,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>866</v>
       </c>
@@ -16096,7 +16273,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>869</v>
       </c>
@@ -16122,7 +16299,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>872</v>
       </c>
@@ -16148,7 +16325,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>875</v>
       </c>
@@ -16174,7 +16351,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>878</v>
       </c>
@@ -16200,7 +16377,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>880</v>
       </c>
@@ -16223,7 +16400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>882</v>
       </c>
@@ -16245,8 +16422,11 @@
       <c r="G312" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H312" s="24" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>884</v>
       </c>
@@ -16275,7 +16455,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>887</v>
       </c>
@@ -16301,7 +16481,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>890</v>
       </c>
@@ -16327,7 +16507,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>893</v>
       </c>
@@ -16353,7 +16533,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>896</v>
       </c>
@@ -16379,7 +16559,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>899</v>
       </c>
@@ -16405,7 +16585,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>902</v>
       </c>
@@ -16428,7 +16608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>904</v>
       </c>
@@ -16450,8 +16630,11 @@
       <c r="G320" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H320" s="24" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>906</v>
       </c>
@@ -16477,7 +16660,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>908</v>
       </c>
@@ -16503,7 +16686,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>910</v>
       </c>
@@ -16529,7 +16712,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>912</v>
       </c>
@@ -16558,7 +16741,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>914</v>
       </c>
@@ -16587,7 +16770,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>916</v>
       </c>
@@ -16616,7 +16799,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>918</v>
       </c>
@@ -16638,12 +16821,14 @@
       <c r="G327" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H327" s="17"/>
+      <c r="H327" s="21" t="s">
+        <v>2532</v>
+      </c>
       <c r="I327" s="6" t="s">
         <v>2247</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>920</v>
       </c>
@@ -16669,7 +16854,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>923</v>
       </c>
@@ -16695,7 +16880,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>925</v>
       </c>
@@ -16718,7 +16903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>927</v>
       </c>
@@ -16740,8 +16925,11 @@
       <c r="G331" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H331" s="21" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>929</v>
       </c>
@@ -16764,7 +16952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>931</v>
       </c>
@@ -16786,8 +16974,11 @@
       <c r="G333" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H333" s="21" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>933</v>
       </c>
@@ -16810,7 +17001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>935</v>
       </c>
@@ -16832,8 +17023,11 @@
       <c r="G335" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H335" s="21" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>937</v>
       </c>
@@ -16856,7 +17050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>939</v>
       </c>
@@ -16878,8 +17072,11 @@
       <c r="G337" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H337" s="21" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>941</v>
       </c>
@@ -16905,7 +17102,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>943</v>
       </c>
@@ -16931,7 +17128,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>946</v>
       </c>
@@ -16957,7 +17154,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>948</v>
       </c>
@@ -16983,7 +17180,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>950</v>
       </c>
@@ -17009,7 +17206,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>952</v>
       </c>
@@ -17035,7 +17232,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>954</v>
       </c>
@@ -17061,7 +17258,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>956</v>
       </c>
@@ -17087,7 +17284,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>958</v>
       </c>
@@ -17113,7 +17310,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>961</v>
       </c>
@@ -17139,7 +17336,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>964</v>
       </c>
@@ -17165,7 +17362,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>967</v>
       </c>
@@ -17191,7 +17388,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>969</v>
       </c>
@@ -17214,7 +17411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>971</v>
       </c>
@@ -17236,8 +17433,11 @@
       <c r="G351" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H351" s="21" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>973</v>
       </c>
@@ -17263,7 +17463,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>976</v>
       </c>
@@ -17289,7 +17489,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>979</v>
       </c>
@@ -17315,7 +17515,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>981</v>
       </c>
@@ -17341,7 +17541,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>984</v>
       </c>
@@ -17367,7 +17567,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>986</v>
       </c>
@@ -17393,7 +17593,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>989</v>
       </c>
@@ -17419,7 +17619,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>991</v>
       </c>
@@ -17445,7 +17645,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>993</v>
       </c>
@@ -17471,7 +17671,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>996</v>
       </c>
@@ -17497,7 +17697,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>999</v>
       </c>
@@ -17523,7 +17723,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>1001</v>
       </c>
@@ -17549,7 +17749,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>1004</v>
       </c>
@@ -17575,7 +17775,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>1006</v>
       </c>
@@ -17601,7 +17801,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>1008</v>
       </c>
@@ -17627,7 +17827,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>1010</v>
       </c>
@@ -17653,7 +17853,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>1012</v>
       </c>
@@ -17679,7 +17879,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>1014</v>
       </c>
@@ -17705,7 +17905,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>1016</v>
       </c>
@@ -17727,8 +17927,11 @@
       <c r="G370" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H370" s="21" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>1019</v>
       </c>
@@ -17754,7 +17957,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>1021</v>
       </c>
@@ -17780,7 +17983,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>1023</v>
       </c>
@@ -17806,7 +18009,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>1025</v>
       </c>
@@ -17832,7 +18035,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>1027</v>
       </c>
@@ -17858,7 +18061,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>1029</v>
       </c>
@@ -17884,7 +18087,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>1031</v>
       </c>
@@ -17910,7 +18113,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>1034</v>
       </c>
@@ -17936,7 +18139,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>1036</v>
       </c>
@@ -17962,7 +18165,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>1039</v>
       </c>
@@ -17988,7 +18191,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>1042</v>
       </c>
@@ -18014,7 +18217,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>1045</v>
       </c>
@@ -18040,7 +18243,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>1048</v>
       </c>
@@ -18066,7 +18269,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>1051</v>
       </c>
@@ -18088,11 +18291,11 @@
       <c r="G384" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H384" s="6" t="s">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H384" s="21" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>1053</v>
       </c>
@@ -18114,11 +18317,11 @@
       <c r="G385" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H385" s="6" t="s">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H385" s="7" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>1055</v>
       </c>
@@ -18144,7 +18347,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>1058</v>
       </c>
@@ -18170,7 +18373,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>1061</v>
       </c>
@@ -18196,7 +18399,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>1064</v>
       </c>
@@ -18222,7 +18425,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>1067</v>
       </c>
@@ -18248,7 +18451,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>1070</v>
       </c>
@@ -18274,7 +18477,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>1073</v>
       </c>
@@ -18300,7 +18503,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>1076</v>
       </c>
@@ -18326,7 +18529,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>1079</v>
       </c>
@@ -18352,7 +18555,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>1082</v>
       </c>
@@ -18378,7 +18581,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>1084</v>
       </c>
@@ -18404,7 +18607,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>1087</v>
       </c>
@@ -18430,7 +18633,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>1090</v>
       </c>
@@ -18456,7 +18659,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>1093</v>
       </c>
@@ -18482,7 +18685,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>1096</v>
       </c>
@@ -18508,7 +18711,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>1098</v>
       </c>
@@ -18534,7 +18737,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>1100</v>
       </c>
@@ -18560,7 +18763,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>1102</v>
       </c>
@@ -18586,7 +18789,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>1104</v>
       </c>
@@ -18612,7 +18815,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>1106</v>
       </c>
@@ -18638,7 +18841,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>1108</v>
       </c>
@@ -18664,7 +18867,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>1110</v>
       </c>
@@ -18690,7 +18893,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>1113</v>
       </c>
@@ -18716,7 +18919,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>1116</v>
       </c>
@@ -18742,7 +18945,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>1118</v>
       </c>
@@ -18774,7 +18977,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>1120</v>
       </c>
@@ -18803,7 +19006,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>1122</v>
       </c>
@@ -18835,7 +19038,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>1124</v>
       </c>
@@ -18862,7 +19065,7 @@
       </c>
       <c r="I413" s="6"/>
     </row>
-    <row r="414" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>1126</v>
       </c>
@@ -18884,7 +19087,9 @@
       <c r="G414" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H414" s="7"/>
+      <c r="H414" s="21" t="s">
+        <v>2531</v>
+      </c>
       <c r="I414" s="6" t="s">
         <v>2247</v>
       </c>
@@ -18892,7 +19097,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>1128</v>
       </c>
@@ -18915,7 +19120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>1130</v>
       </c>
@@ -18941,7 +19146,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>1132</v>
       </c>
@@ -18967,7 +19172,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>1135</v>
       </c>
@@ -18993,7 +19198,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>1137</v>
       </c>
@@ -19019,7 +19224,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>1139</v>
       </c>
@@ -19041,7 +19246,9 @@
       <c r="G420" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H420" s="17"/>
+      <c r="H420" s="23" t="s">
+        <v>2544</v>
+      </c>
       <c r="I420" s="6" t="s">
         <v>2263</v>
       </c>
@@ -19049,7 +19256,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>1141</v>
       </c>
@@ -19075,7 +19282,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>1143</v>
       </c>
@@ -19101,7 +19308,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>1145</v>
       </c>
@@ -19127,7 +19334,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>1147</v>
       </c>
@@ -19153,7 +19360,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>1150</v>
       </c>
@@ -19179,7 +19386,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>1152</v>
       </c>
@@ -19205,7 +19412,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>1154</v>
       </c>
@@ -19231,7 +19438,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>1156</v>
       </c>
@@ -19260,7 +19467,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>1158</v>
       </c>
@@ -19286,7 +19493,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>1160</v>
       </c>
@@ -19312,7 +19519,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>1162</v>
       </c>
@@ -19338,7 +19545,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>1164</v>
       </c>
@@ -19364,7 +19571,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>1166</v>
       </c>
@@ -19390,7 +19597,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>1168</v>
       </c>
@@ -19416,7 +19623,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>1171</v>
       </c>
@@ -19442,7 +19649,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>1173</v>
       </c>
@@ -19468,7 +19675,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>1175</v>
       </c>
@@ -19494,7 +19701,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>1177</v>
       </c>
@@ -19520,7 +19727,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>1179</v>
       </c>
@@ -19546,7 +19753,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>1181</v>
       </c>
@@ -19575,7 +19782,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>1183</v>
       </c>
@@ -19601,7 +19808,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>1186</v>
       </c>
@@ -19623,8 +19830,11 @@
       <c r="G442" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="443" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H442" s="24" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>1189</v>
       </c>
@@ -19650,7 +19860,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>1191</v>
       </c>
@@ -19676,7 +19886,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>1193</v>
       </c>
@@ -19702,7 +19912,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>1195</v>
       </c>
@@ -19731,7 +19941,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>1197</v>
       </c>
@@ -19757,7 +19967,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>1199</v>
       </c>
@@ -19783,7 +19993,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>1201</v>
       </c>
@@ -19809,7 +20019,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="450" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>1203</v>
       </c>
@@ -19838,7 +20048,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="451" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>1206</v>
       </c>
@@ -19864,7 +20074,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="452" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>1209</v>
       </c>
@@ -19890,7 +20100,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="453" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>1211</v>
       </c>
@@ -19916,7 +20126,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="454" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>1213</v>
       </c>
@@ -19942,7 +20152,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
         <v>1216</v>
       </c>
@@ -19968,7 +20178,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>1218</v>
       </c>
@@ -19994,7 +20204,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>1220</v>
       </c>
@@ -20020,7 +20230,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="458" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>1222</v>
       </c>
@@ -20047,7 +20257,7 @@
       </c>
       <c r="I458" s="10"/>
     </row>
-    <row r="459" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
         <v>1224</v>
       </c>
@@ -20073,7 +20283,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="460" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>1227</v>
       </c>
@@ -20099,7 +20309,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>1230</v>
       </c>
@@ -20125,7 +20335,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>1232</v>
       </c>
@@ -20151,7 +20361,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="463" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
         <v>1235</v>
       </c>
@@ -20177,7 +20387,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>1238</v>
       </c>
@@ -20203,7 +20413,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="465" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>1240</v>
       </c>
@@ -20229,7 +20439,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>1242</v>
       </c>
@@ -20255,7 +20465,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="467" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>1244</v>
       </c>
@@ -20282,7 +20492,7 @@
       </c>
       <c r="I467" s="11"/>
     </row>
-    <row r="468" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
         <v>1247</v>
       </c>
@@ -20308,7 +20518,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="469" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>1250</v>
       </c>
@@ -20334,7 +20544,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="470" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
         <v>1253</v>
       </c>
@@ -20360,7 +20570,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="471" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>1255</v>
       </c>
@@ -20386,7 +20596,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="472" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
         <v>1258</v>
       </c>
@@ -20412,7 +20622,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="473" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
         <v>1261</v>
       </c>
@@ -20438,7 +20648,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
         <v>1264</v>
       </c>
@@ -20464,7 +20674,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="475" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
         <v>1267</v>
       </c>
@@ -20490,7 +20700,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="476" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
         <v>1270</v>
       </c>
@@ -20516,7 +20726,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="477" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
         <v>1272</v>
       </c>
@@ -20542,7 +20752,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="478" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
         <v>1274</v>
       </c>
@@ -20571,7 +20781,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="479" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
         <v>1277</v>
       </c>
@@ -20597,7 +20807,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
         <v>1279</v>
       </c>
@@ -20623,7 +20833,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
         <v>1281</v>
       </c>
@@ -20649,7 +20859,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>1283</v>
       </c>
@@ -20675,7 +20885,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
         <v>1285</v>
       </c>
@@ -20701,7 +20911,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
         <v>1287</v>
       </c>
@@ -20727,7 +20937,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
         <v>1290</v>
       </c>
@@ -20753,7 +20963,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
         <v>1292</v>
       </c>
@@ -20779,7 +20989,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
         <v>1295</v>
       </c>
@@ -20805,7 +21015,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
         <v>1299</v>
       </c>
@@ -20831,7 +21041,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
         <v>1302</v>
       </c>
@@ -20857,7 +21067,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
         <v>1305</v>
       </c>
@@ -20884,7 +21094,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
         <v>1307</v>
       </c>
@@ -20910,7 +21120,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
         <v>1309</v>
       </c>
@@ -20936,7 +21146,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="493" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
         <v>1311</v>
       </c>
@@ -20962,7 +21172,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
         <v>1313</v>
       </c>
@@ -20988,7 +21198,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="495" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
         <v>1315</v>
       </c>
@@ -21014,7 +21224,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
         <v>1317</v>
       </c>
@@ -21040,7 +21250,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
         <v>1319</v>
       </c>
@@ -21066,7 +21276,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
         <v>1321</v>
       </c>
@@ -21092,7 +21302,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
         <v>1324</v>
       </c>
@@ -21118,7 +21328,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
         <v>1327</v>
       </c>
@@ -21144,7 +21354,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
         <v>1330</v>
       </c>
@@ -21170,7 +21380,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
         <v>1333</v>
       </c>
@@ -21196,7 +21406,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
         <v>1336</v>
       </c>
@@ -21222,7 +21432,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
         <v>1338</v>
       </c>
@@ -21248,7 +21458,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
         <v>1340</v>
       </c>
@@ -21274,7 +21484,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
         <v>1343</v>
       </c>
@@ -21300,7 +21510,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
         <v>1345</v>
       </c>
@@ -21326,7 +21536,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
         <v>1347</v>
       </c>
@@ -21352,7 +21562,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
         <v>1350</v>
       </c>
@@ -21378,7 +21588,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
         <v>1352</v>
       </c>
@@ -21404,7 +21614,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
         <v>1354</v>
       </c>
@@ -21430,7 +21640,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
         <v>1356</v>
       </c>
@@ -21456,7 +21666,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
         <v>1359</v>
       </c>
@@ -21482,7 +21692,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
         <v>1362</v>
       </c>
@@ -21508,7 +21718,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
         <v>1365</v>
       </c>
@@ -21534,7 +21744,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
         <v>1368</v>
       </c>
@@ -21560,7 +21770,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
         <v>1371</v>
       </c>
@@ -21586,7 +21796,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
         <v>1374</v>
       </c>
@@ -21612,7 +21822,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
         <v>1377</v>
       </c>
@@ -21638,7 +21848,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
         <v>1380</v>
       </c>
@@ -21664,7 +21874,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
         <v>1383</v>
       </c>
@@ -21690,7 +21900,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
         <v>1386</v>
       </c>
@@ -21716,7 +21926,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
         <v>1389</v>
       </c>
@@ -21742,7 +21952,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="524" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
         <v>1392</v>
       </c>
@@ -21768,7 +21978,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
         <v>1395</v>
       </c>
@@ -21794,7 +22004,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
         <v>1397</v>
       </c>
@@ -21826,7 +22036,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
         <v>1399</v>
       </c>
@@ -21855,7 +22065,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="528" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
         <v>1401</v>
       </c>
@@ -21884,7 +22094,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
         <v>1403</v>
       </c>
@@ -21911,7 +22121,7 @@
       </c>
       <c r="I529" s="6"/>
     </row>
-    <row r="530" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
         <v>1405</v>
       </c>
@@ -21933,11 +22143,11 @@
       <c r="G530" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H530" s="6" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="531" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H530" s="21" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
         <v>1407</v>
       </c>
@@ -21963,7 +22173,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
         <v>1409</v>
       </c>
@@ -21989,7 +22199,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
         <v>1411</v>
       </c>
@@ -22015,7 +22225,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="534" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
         <v>1415</v>
       </c>
@@ -22041,7 +22251,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
         <v>1418</v>
       </c>
@@ -22067,7 +22277,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="536" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
         <v>1421</v>
       </c>
@@ -22093,7 +22303,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
         <v>1424</v>
       </c>
@@ -22119,7 +22329,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
         <v>2071</v>
       </c>
@@ -22143,7 +22353,7 @@
       </c>
       <c r="H538" s="15"/>
     </row>
-    <row r="539" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
         <v>1426</v>
       </c>
@@ -22166,7 +22376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
         <v>1428</v>
       </c>
@@ -22189,7 +22399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
         <v>1431</v>
       </c>
@@ -22212,7 +22422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
         <v>1434</v>
       </c>
@@ -22235,7 +22445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
         <v>1437</v>
       </c>
@@ -22258,7 +22468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
         <v>1440</v>
       </c>
@@ -22281,7 +22491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
         <v>1442</v>
       </c>
@@ -22304,7 +22514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
         <v>1445</v>
       </c>
@@ -22327,7 +22537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
         <v>1448</v>
       </c>
@@ -22350,7 +22560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
         <v>1451</v>
       </c>
@@ -22373,7 +22583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
         <v>1454</v>
       </c>
@@ -22396,7 +22606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
         <v>1457</v>
       </c>
@@ -22419,7 +22629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
         <v>1460</v>
       </c>
@@ -22442,7 +22652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
         <v>1463</v>
       </c>
@@ -22464,8 +22674,11 @@
       <c r="G552" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="553" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H552" s="24" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
         <v>1465</v>
       </c>
@@ -22491,7 +22704,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
         <v>1468</v>
       </c>
@@ -22517,7 +22730,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
         <v>1470</v>
       </c>
@@ -22543,7 +22756,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
         <v>1473</v>
       </c>
@@ -22569,7 +22782,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
         <v>1476</v>
       </c>
@@ -22595,7 +22808,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
         <v>1478</v>
       </c>
@@ -22621,7 +22834,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
         <v>1481</v>
       </c>
@@ -22647,7 +22860,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
         <v>1484</v>
       </c>
@@ -22673,7 +22886,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
         <v>1487</v>
       </c>
@@ -22699,7 +22912,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
         <v>1490</v>
       </c>
@@ -22726,7 +22939,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A563" s="2" t="s">
         <v>1493</v>
       </c>
@@ -22750,7 +22963,7 @@
       </c>
       <c r="H563" s="17"/>
     </row>
-    <row r="564" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
         <v>1495</v>
       </c>
@@ -22774,7 +22987,7 @@
       </c>
       <c r="H564" s="17"/>
     </row>
-    <row r="565" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
         <v>1497</v>
       </c>
@@ -22798,7 +23011,7 @@
       </c>
       <c r="H565" s="17"/>
     </row>
-    <row r="566" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
         <v>1499</v>
       </c>
@@ -22822,7 +23035,7 @@
       </c>
       <c r="H566" s="17"/>
     </row>
-    <row r="567" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
         <v>1501</v>
       </c>
@@ -22846,7 +23059,7 @@
       </c>
       <c r="H567" s="17"/>
     </row>
-    <row r="568" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
         <v>1503</v>
       </c>
@@ -22870,7 +23083,7 @@
       </c>
       <c r="H568" s="17"/>
     </row>
-    <row r="569" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
         <v>1505</v>
       </c>
@@ -22894,7 +23107,7 @@
       </c>
       <c r="H569" s="17"/>
     </row>
-    <row r="570" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
         <v>1507</v>
       </c>
@@ -22918,7 +23131,7 @@
       </c>
       <c r="H570" s="17"/>
     </row>
-    <row r="571" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
         <v>1509</v>
       </c>
@@ -22942,7 +23155,7 @@
       </c>
       <c r="H571" s="17"/>
     </row>
-    <row r="572" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
         <v>1511</v>
       </c>
@@ -22968,7 +23181,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="573" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
         <v>1513</v>
       </c>
@@ -22994,7 +23207,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
         <v>1516</v>
       </c>
@@ -23020,7 +23233,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
         <v>1519</v>
       </c>
@@ -23043,7 +23256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="576" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
         <v>1522</v>
       </c>
@@ -23069,7 +23282,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
         <v>1524</v>
       </c>
@@ -23095,7 +23308,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
         <v>1526</v>
       </c>
@@ -23121,7 +23334,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
         <v>1528</v>
       </c>
@@ -23147,7 +23360,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
         <v>1531</v>
       </c>
@@ -23173,7 +23386,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="581" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
         <v>1533</v>
       </c>
@@ -23195,13 +23408,15 @@
       <c r="G581" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H581" s="17"/>
+      <c r="H581" s="24" t="s">
+        <v>2579</v>
+      </c>
       <c r="I581" s="8"/>
       <c r="J581" s="14" t="s">
         <v>2255</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
         <v>1535</v>
       </c>
@@ -23227,7 +23442,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
         <v>1538</v>
       </c>
@@ -23253,7 +23468,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="584" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
         <v>1541</v>
       </c>
@@ -23276,7 +23491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
         <v>1543</v>
       </c>
@@ -23302,7 +23517,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
         <v>1545</v>
       </c>
@@ -23328,7 +23543,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="587" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
         <v>1547</v>
       </c>
@@ -23351,7 +23566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
         <v>1550</v>
       </c>
@@ -23377,7 +23592,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
         <v>1553</v>
       </c>
@@ -23400,7 +23615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
         <v>1556</v>
       </c>
@@ -23422,12 +23637,14 @@
       <c r="G590" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H590" s="17"/>
+      <c r="H590" s="24" t="s">
+        <v>2578</v>
+      </c>
       <c r="J590" s="14" t="s">
         <v>2255</v>
       </c>
     </row>
-    <row r="591" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
         <v>1558</v>
       </c>
@@ -23453,7 +23670,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="592" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
         <v>1560</v>
       </c>
@@ -23479,7 +23696,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="593" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
         <v>1563</v>
       </c>
@@ -23505,7 +23722,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="594" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
         <v>1566</v>
       </c>
@@ -23527,9 +23744,11 @@
       <c r="G594" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H594" s="17"/>
-    </row>
-    <row r="595" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H594" s="24" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
         <v>1569</v>
       </c>
@@ -23551,9 +23770,11 @@
       <c r="G595" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H595" s="17"/>
-    </row>
-    <row r="596" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H595" s="24" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
         <v>1572</v>
       </c>
@@ -23579,7 +23800,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="597" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
         <v>1574</v>
       </c>
@@ -23602,7 +23823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
         <v>1577</v>
       </c>
@@ -23628,7 +23849,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="599" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
         <v>1580</v>
       </c>
@@ -23654,7 +23875,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="600" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
         <v>1583</v>
       </c>
@@ -23680,7 +23901,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="601" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
         <v>1585</v>
       </c>
@@ -23706,7 +23927,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="602" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
         <v>1588</v>
       </c>
@@ -23732,7 +23953,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="603" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
         <v>1590</v>
       </c>
@@ -23755,7 +23976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="604" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A604" s="2" t="s">
         <v>1592</v>
       </c>
@@ -23778,7 +23999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="605" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
         <v>1595</v>
       </c>
@@ -23804,7 +24025,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="606" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
         <v>1597</v>
       </c>
@@ -23830,7 +24051,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="607" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A607" s="2" t="s">
         <v>1599</v>
       </c>
@@ -23853,7 +24074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608" s="2" t="s">
         <v>1601</v>
       </c>
@@ -23876,7 +24097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A609" s="2" t="s">
         <v>1603</v>
       </c>
@@ -23899,7 +24120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="610" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A610" s="2" t="s">
         <v>1605</v>
       </c>
@@ -23925,7 +24146,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="611" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A611" s="2" t="s">
         <v>1608</v>
       </c>
@@ -23948,7 +24169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="612" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A612" s="2" t="s">
         <v>1610</v>
       </c>
@@ -23971,7 +24192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="613" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613" s="2" t="s">
         <v>1613</v>
       </c>
@@ -23997,7 +24218,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="614" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A614" s="2" t="s">
         <v>1616</v>
       </c>
@@ -24023,7 +24244,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="615" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A615" s="2" t="s">
         <v>1619</v>
       </c>
@@ -24045,12 +24266,14 @@
       <c r="G615" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H615" s="17"/>
+      <c r="H615" s="24" t="s">
+        <v>2580</v>
+      </c>
       <c r="J615" s="14" t="s">
         <v>2255</v>
       </c>
     </row>
-    <row r="616" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A616" s="2" t="s">
         <v>1693</v>
       </c>
@@ -24076,7 +24299,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="617" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A617" s="2" t="s">
         <v>1803</v>
       </c>
@@ -24105,7 +24328,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="618" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
         <v>1805</v>
       </c>
@@ -24131,7 +24354,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="619" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A619" s="2" t="s">
         <v>1807</v>
       </c>
@@ -24157,7 +24380,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="620" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A620" s="2" t="s">
         <v>1820</v>
       </c>
@@ -24183,7 +24406,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="621" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
         <v>1706</v>
       </c>
@@ -24210,7 +24433,7 @@
       </c>
       <c r="I621" s="6"/>
     </row>
-    <row r="622" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
         <v>1622</v>
       </c>
@@ -24236,7 +24459,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="623" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A623" s="2" t="s">
         <v>1637</v>
       </c>
@@ -24262,7 +24485,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="624" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
         <v>1651</v>
       </c>
@@ -24288,7 +24511,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="625" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
         <v>1646</v>
       </c>
@@ -24314,7 +24537,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="626" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
         <v>1657</v>
       </c>
@@ -24337,7 +24560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="627" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
         <v>1661</v>
       </c>
@@ -24360,7 +24583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="628" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
         <v>1677</v>
       </c>
@@ -24383,7 +24606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
         <v>1681</v>
       </c>
@@ -24406,7 +24629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="630" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
         <v>1685</v>
       </c>
@@ -24428,7 +24651,7 @@
       <c r="G630" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H630" s="17"/>
+      <c r="H630" s="15"/>
       <c r="I630" s="6" t="s">
         <v>2320</v>
       </c>
@@ -24436,7 +24659,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="631" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
         <v>1691</v>
       </c>
@@ -24459,7 +24682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="632" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
         <v>1770</v>
       </c>
@@ -24491,7 +24714,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="633" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
         <v>1772</v>
       </c>
@@ -24523,7 +24746,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="634" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
         <v>1628</v>
       </c>
@@ -24549,7 +24772,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="635" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A635" s="2" t="s">
         <v>1665</v>
       </c>
@@ -24575,7 +24798,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="636" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
         <v>1667</v>
       </c>
@@ -24601,7 +24824,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="637" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A637" s="2" t="s">
         <v>1669</v>
       </c>
@@ -24627,7 +24850,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="638" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A638" s="2" t="s">
         <v>1671</v>
       </c>
@@ -24653,7 +24876,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="639" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A639" s="2" t="s">
         <v>1673</v>
       </c>
@@ -24679,7 +24902,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="640" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A640" s="2" t="s">
         <v>1675</v>
       </c>
@@ -24705,7 +24928,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A641" s="2" t="s">
         <v>1792</v>
       </c>
@@ -24728,7 +24951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A642" s="2" t="s">
         <v>1717</v>
       </c>
@@ -24754,7 +24977,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A643" s="2" t="s">
         <v>1631</v>
       </c>
@@ -24780,7 +25003,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A644" s="2" t="s">
         <v>1634</v>
       </c>
@@ -24806,7 +25029,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A645" s="2" t="s">
         <v>1659</v>
       </c>
@@ -24828,8 +25051,11 @@
       <c r="G645" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="646" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H645" s="24" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A646" s="2" t="s">
         <v>1663</v>
       </c>
@@ -24851,8 +25077,11 @@
       <c r="G646" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="647" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H646" s="24" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A647" s="2" t="s">
         <v>1679</v>
       </c>
@@ -24874,8 +25103,11 @@
       <c r="G647" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="648" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H647" s="24" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A648" s="2" t="s">
         <v>1683</v>
       </c>
@@ -24897,8 +25129,11 @@
       <c r="G648" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="649" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H648" s="24" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A649" s="2" t="s">
         <v>1687</v>
       </c>
@@ -24920,8 +25155,11 @@
       <c r="G649" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="650" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H649" s="24" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A650" s="2" t="s">
         <v>1689</v>
       </c>
@@ -24943,8 +25181,11 @@
       <c r="G650" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="651" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H650" s="24" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A651" s="2" t="s">
         <v>1831</v>
       </c>
@@ -24967,7 +25208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A652" s="2" t="s">
         <v>1695</v>
       </c>
@@ -24990,7 +25231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
         <v>1715</v>
       </c>
@@ -25016,7 +25257,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A654" s="2" t="s">
         <v>1698</v>
       </c>
@@ -25042,7 +25283,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A655" s="2" t="s">
         <v>1843</v>
       </c>
@@ -25068,7 +25309,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="54" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A656" s="2" t="s">
         <v>1648</v>
       </c>
@@ -25094,7 +25335,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="657" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A657" s="2" t="s">
         <v>1701</v>
       </c>
@@ -25120,7 +25361,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A658" s="2" t="s">
         <v>1708</v>
       </c>
@@ -25146,7 +25387,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="659" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A659" s="2" t="s">
         <v>1704</v>
       </c>
@@ -25172,7 +25413,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="660" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
         <v>1774</v>
       </c>
@@ -25198,7 +25439,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="661" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A661" s="2" t="s">
         <v>1742</v>
       </c>
@@ -25221,7 +25462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="662" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A662" s="2" t="s">
         <v>1723</v>
       </c>
@@ -25243,9 +25484,11 @@
       <c r="G662" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H662" s="17"/>
-    </row>
-    <row r="663" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H662" s="24" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A663" s="2" t="s">
         <v>1776</v>
       </c>
@@ -25271,7 +25514,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="664" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A664" s="2" t="s">
         <v>1726</v>
       </c>
@@ -25297,7 +25540,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="665" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A665" s="2" t="s">
         <v>1729</v>
       </c>
@@ -25323,7 +25566,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="666" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A666" s="2" t="s">
         <v>1731</v>
       </c>
@@ -25349,7 +25592,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="667" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A667" s="2" t="s">
         <v>1733</v>
       </c>
@@ -25375,7 +25618,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="668" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
         <v>1735</v>
       </c>
@@ -25401,7 +25644,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="669" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A669" s="2" t="s">
         <v>1737</v>
       </c>
@@ -25423,7 +25666,9 @@
       <c r="G669" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H669" s="17"/>
+      <c r="H669" s="24" t="s">
+        <v>2554</v>
+      </c>
       <c r="I669" s="6" t="s">
         <v>2320</v>
       </c>
@@ -25431,7 +25676,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="670" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A670" s="2" t="s">
         <v>1745</v>
       </c>
@@ -25457,7 +25702,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="671" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A671" s="2" t="s">
         <v>1814</v>
       </c>
@@ -25483,7 +25728,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="672" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A672" s="2" t="s">
         <v>1747</v>
       </c>
@@ -25509,7 +25754,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="673" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A673" s="2" t="s">
         <v>1643</v>
       </c>
@@ -25535,7 +25780,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="674" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A674" s="2" t="s">
         <v>1749</v>
       </c>
@@ -25561,7 +25806,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="675" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A675" s="2" t="s">
         <v>1764</v>
       </c>
@@ -25584,7 +25829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="676" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A676" s="2" t="s">
         <v>1767</v>
       </c>
@@ -25610,7 +25855,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="677" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A677" s="2" t="s">
         <v>1720</v>
       </c>
@@ -25636,7 +25881,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="678" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A678" s="2" t="s">
         <v>1795</v>
       </c>
@@ -25662,7 +25907,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="679" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A679" s="2" t="s">
         <v>1784</v>
       </c>
@@ -25685,7 +25930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="680" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A680" s="2" t="s">
         <v>1797</v>
       </c>
@@ -25711,7 +25956,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="681" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A681" s="2" t="s">
         <v>1800</v>
       </c>
@@ -25737,7 +25982,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="682" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A682" s="2" t="s">
         <v>1809</v>
       </c>
@@ -25763,7 +26008,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="683" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A683" s="2" t="s">
         <v>1834</v>
       </c>
@@ -25786,7 +26031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="684" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A684" s="2" t="s">
         <v>1812</v>
       </c>
@@ -25812,7 +26057,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="685" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A685" s="2" t="s">
         <v>1752</v>
       </c>
@@ -25838,7 +26083,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="686" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A686" s="2" t="s">
         <v>1825</v>
       </c>
@@ -25861,7 +26106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="687" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A687" s="2" t="s">
         <v>1817</v>
       </c>
@@ -25887,7 +26132,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="688" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A688" s="2" t="s">
         <v>1828</v>
       </c>
@@ -25910,7 +26155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="689" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A689" s="2" t="s">
         <v>1654</v>
       </c>
@@ -25932,12 +26177,14 @@
       <c r="G689" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H689" s="17"/>
+      <c r="H689" s="24" t="s">
+        <v>2557</v>
+      </c>
       <c r="J689" s="14" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="690" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A690" s="2" t="s">
         <v>1758</v>
       </c>
@@ -25959,9 +26206,11 @@
       <c r="G690" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H690" s="17"/>
-    </row>
-    <row r="691" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H690" s="24" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A691" s="2" t="s">
         <v>1760</v>
       </c>
@@ -25983,9 +26232,11 @@
       <c r="G691" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H691" s="17"/>
-    </row>
-    <row r="692" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H691" s="24" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A692" s="2" t="s">
         <v>1762</v>
       </c>
@@ -26007,9 +26258,11 @@
       <c r="G692" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H692" s="17"/>
-    </row>
-    <row r="693" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H692" s="24" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A693" s="2" t="s">
         <v>1778</v>
       </c>
@@ -26035,7 +26288,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="694" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A694" s="2" t="s">
         <v>1780</v>
       </c>
@@ -26061,7 +26314,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="695" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A695" s="2" t="s">
         <v>1755</v>
       </c>
@@ -26087,7 +26340,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="696" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A696" s="2" t="s">
         <v>1837</v>
       </c>
@@ -26113,7 +26366,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="697" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A697" s="2" t="s">
         <v>1840</v>
       </c>
@@ -26135,9 +26388,11 @@
       <c r="G697" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H697" s="17"/>
-    </row>
-    <row r="698" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H697" s="24" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A698" s="2" t="s">
         <v>1852</v>
       </c>
@@ -26163,7 +26418,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="699" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A699" s="2" t="s">
         <v>1710</v>
       </c>
@@ -26189,7 +26444,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="700" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A700" s="2" t="s">
         <v>1640</v>
       </c>
@@ -26215,7 +26470,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="701" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A701" s="2" t="s">
         <v>1786</v>
       </c>
@@ -26241,7 +26496,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="702" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A702" s="2" t="s">
         <v>1846</v>
       </c>
@@ -26267,7 +26522,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="703" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A703" s="2" t="s">
         <v>1849</v>
       </c>
@@ -26293,7 +26548,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="704" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A704" s="2" t="s">
         <v>1855</v>
       </c>
@@ -26319,7 +26574,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="705" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A705" s="2" t="s">
         <v>1625</v>
       </c>
@@ -26345,7 +26600,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="706" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A706" s="2" t="s">
         <v>1712</v>
       </c>
@@ -26368,7 +26623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="707" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A707" s="2" t="s">
         <v>1739</v>
       </c>
@@ -26392,7 +26647,7 @@
       </c>
       <c r="H707" s="18"/>
     </row>
-    <row r="708" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A708" s="2" t="s">
         <v>1789</v>
       </c>
@@ -26416,7 +26671,7 @@
       </c>
       <c r="H708" s="18"/>
     </row>
-    <row r="709" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A709" s="2" t="s">
         <v>1822</v>
       </c>
@@ -26439,7 +26694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="710" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A710" s="2" t="s">
         <v>1857</v>
       </c>
@@ -26465,7 +26720,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="711" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A711" s="2" t="s">
         <v>1859</v>
       </c>
@@ -26491,7 +26746,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="712" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A712" s="2" t="s">
         <v>1861</v>
       </c>
@@ -26517,7 +26772,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="713" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A713" s="2" t="s">
         <v>1863</v>
       </c>
@@ -26543,7 +26798,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="714" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A714" s="2" t="s">
         <v>1865</v>
       </c>
@@ -26565,7 +26820,9 @@
       <c r="G714" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H714" s="17"/>
+      <c r="H714" s="24" t="s">
+        <v>2553</v>
+      </c>
       <c r="I714" s="6" t="s">
         <v>2320</v>
       </c>
@@ -26573,7 +26830,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="715" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A715" s="2" t="s">
         <v>1867</v>
       </c>
@@ -26599,7 +26856,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="716" spans="1:10" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A716" s="2" t="s">
         <v>1782</v>
       </c>
@@ -26625,7 +26882,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="717" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A717" s="2" t="s">
         <v>1870</v>
       </c>
@@ -26651,7 +26908,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="718" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A718" s="2" t="s">
         <v>1873</v>
       </c>
@@ -26677,7 +26934,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="719" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A719" s="2" t="s">
         <v>1876</v>
       </c>
@@ -26703,7 +26960,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="720" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A720" s="2" t="s">
         <v>1879</v>
       </c>
@@ -26729,7 +26986,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="721" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
         <v>1882</v>
       </c>
@@ -26755,7 +27012,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="722" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A722" s="2" t="s">
         <v>1885</v>
       </c>
@@ -26781,7 +27038,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="723" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A723" s="2" t="s">
         <v>1888</v>
       </c>
@@ -26807,7 +27064,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="724" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A724" s="2" t="s">
         <v>1891</v>
       </c>
@@ -26833,7 +27090,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A725" s="2" t="s">
         <v>1894</v>
       </c>
@@ -26859,7 +27116,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A726" s="2" t="s">
         <v>1896</v>
       </c>
@@ -26885,7 +27142,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="727" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A727" s="2" t="s">
         <v>1898</v>
       </c>
@@ -26911,7 +27168,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="728" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A728" s="2" t="s">
         <v>1901</v>
       </c>
@@ -26937,7 +27194,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
         <v>1904</v>
       </c>
@@ -26963,7 +27220,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="730" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A730" s="2" t="s">
         <v>1906</v>
       </c>
@@ -26989,7 +27246,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="731" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A731" s="2" t="s">
         <v>1908</v>
       </c>
@@ -27015,7 +27272,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="732" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A732" s="2" t="s">
         <v>1911</v>
       </c>
@@ -27041,7 +27298,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="733" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A733" s="2" t="s">
         <v>1914</v>
       </c>
@@ -27067,7 +27324,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="734" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A734" s="2" t="s">
         <v>1917</v>
       </c>
@@ -27093,7 +27350,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="735" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A735" s="2" t="s">
         <v>1920</v>
       </c>
@@ -27119,7 +27376,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="736" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A736" s="2" t="s">
         <v>1923</v>
       </c>
@@ -27145,7 +27402,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="737" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A737" s="2" t="s">
         <v>1926</v>
       </c>
@@ -27171,7 +27428,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="738" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
         <v>1929</v>
       </c>
@@ -27197,7 +27454,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="739" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A739" s="2" t="s">
         <v>1932</v>
       </c>
@@ -27223,7 +27480,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="740" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A740" s="2" t="s">
         <v>1935</v>
       </c>
@@ -27249,7 +27506,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="741" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A741" s="2" t="s">
         <v>1938</v>
       </c>
@@ -27275,7 +27532,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="742" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A742" s="2" t="s">
         <v>1941</v>
       </c>
@@ -27301,7 +27558,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="743" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A743" s="2" t="s">
         <v>1944</v>
       </c>
@@ -27327,7 +27584,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="744" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A744" s="2" t="s">
         <v>1947</v>
       </c>
@@ -27353,7 +27610,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="745" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A745" s="2" t="s">
         <v>1950</v>
       </c>
@@ -27379,7 +27636,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="746" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A746" s="2" t="s">
         <v>1953</v>
       </c>
@@ -27405,7 +27662,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="747" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A747" s="2" t="s">
         <v>1955</v>
       </c>
@@ -27431,7 +27688,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="748" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A748" s="2" t="s">
         <v>1958</v>
       </c>
@@ -27457,7 +27714,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="749" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A749" s="2" t="s">
         <v>1960</v>
       </c>
@@ -27479,9 +27736,11 @@
       <c r="G749" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H749" s="7"/>
-    </row>
-    <row r="750" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H749" s="7" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="750" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A750" s="2" t="s">
         <v>1963</v>
       </c>
@@ -27507,7 +27766,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="751" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A751" s="2" t="s">
         <v>1965</v>
       </c>
@@ -27533,7 +27792,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="752" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="2" t="s">
         <v>1968</v>
       </c>
@@ -27559,7 +27818,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="753" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A753" s="2" t="s">
         <v>1970</v>
       </c>
@@ -27585,7 +27844,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="754" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A754" s="2" t="s">
         <v>1973</v>
       </c>
@@ -27611,7 +27870,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="755" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A755" s="2" t="s">
         <v>1976</v>
       </c>
@@ -27637,7 +27896,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="756" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A756" s="2" t="s">
         <v>1978</v>
       </c>
@@ -27663,7 +27922,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="757" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A757" s="2" t="s">
         <v>1980</v>
       </c>
@@ -27689,7 +27948,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="758" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A758" s="2" t="s">
         <v>1983</v>
       </c>
@@ -27715,7 +27974,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="759" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A759" s="2" t="s">
         <v>1985</v>
       </c>
@@ -27741,7 +28000,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="760" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A760" s="2" t="s">
         <v>1988</v>
       </c>
@@ -27767,7 +28026,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="761" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A761" s="2" t="s">
         <v>1991</v>
       </c>
@@ -27793,7 +28052,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="762" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A762" s="2" t="s">
         <v>1994</v>
       </c>
@@ -27819,7 +28078,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="763" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A763" s="2" t="s">
         <v>1997</v>
       </c>
@@ -27841,9 +28100,11 @@
       <c r="G763" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H763" s="17"/>
-    </row>
-    <row r="764" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H763" s="24" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="764" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A764" s="2" t="s">
         <v>2000</v>
       </c>
@@ -27869,7 +28130,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="765" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A765" s="2" t="s">
         <v>2003</v>
       </c>
@@ -27895,7 +28156,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="766" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A766" s="2" t="s">
         <v>2006</v>
       </c>
@@ -27921,7 +28182,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="767" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A767" s="2" t="s">
         <v>2009</v>
       </c>
@@ -27947,7 +28208,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="768" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A768" s="2" t="s">
         <v>2011</v>
       </c>
@@ -27973,7 +28234,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="769" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A769" s="2" t="s">
         <v>2014</v>
       </c>
@@ -27999,7 +28260,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="770" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A770" s="2" t="s">
         <v>2017</v>
       </c>
@@ -28025,7 +28286,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="771" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A771" s="2" t="s">
         <v>2019</v>
       </c>
@@ -28051,7 +28312,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="772" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A772" s="2" t="s">
         <v>2022</v>
       </c>
@@ -28077,7 +28338,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="773" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A773" s="2" t="s">
         <v>2025</v>
       </c>
@@ -28103,7 +28364,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="774" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A774" s="2" t="s">
         <v>2028</v>
       </c>
@@ -28132,7 +28393,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="775" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A775" s="2" t="s">
         <v>2031</v>
       </c>
@@ -28159,7 +28420,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="776" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A776" s="2" t="s">
         <v>2033</v>
       </c>
@@ -28187,9 +28448,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I776">
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
     <sortState ref="A616:I716">
       <sortCondition ref="E1:E776"/>
     </sortState>
